--- a/src/examples/PCA_Result.xlsx
+++ b/src/examples/PCA_Result.xlsx
@@ -465,19 +465,19 @@
         <v>122</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1284651346578904</v>
+        <v>-0.4651199058538785</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4135489150133187</v>
+        <v>-0.2138595999571075</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05365429036463415</v>
+        <v>0.1398398163381497</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06068022784911835</v>
+        <v>0.1573185956378092</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3464682773211855</v>
+        <v>0.09764081907652991</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>123</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07686153350858842</v>
+        <v>0.1250401629191244</v>
       </c>
       <c r="C3" t="n">
-        <v>0.180798705454101</v>
+        <v>-0.3818500380223279</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2560188260482479</v>
+        <v>0.305913301322744</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.181821388981744</v>
+        <v>0.4140931404818275</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5426740138180025</v>
+        <v>-0.05135044909441994</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>124</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3521449612396856</v>
+        <v>-0.3413753013816606</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3152220301886367</v>
+        <v>-0.3155395831320348</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2069225240730624</v>
+        <v>0.2370666794714959</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07171503869925702</v>
+        <v>0.1921953439497862</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3706386646404043</v>
+        <v>0.3214437497387987</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>125</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5456080275689191</v>
+        <v>-0.4086957476819169</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3694057462699386</v>
+        <v>-0.2008010194513299</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2586134667005701</v>
+        <v>0.3562362740268883</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3582844198803288</v>
+        <v>-0.01908067731701455</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2244328326954285</v>
+        <v>0.5906343119351743</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>126</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6360683335700945</v>
+        <v>-0.9737645442691268</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.9055255365478224</v>
+        <v>-0.4370598145368916</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2117371455469006</v>
+        <v>0.3548312313554581</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3312512942030469</v>
+        <v>0.136448902112333</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5497012149707105</v>
+        <v>0.6264770219976376</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>127</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6131578677047922</v>
+        <v>-0.5996483459495114</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4757545029140775</v>
+        <v>-0.7899328648823902</v>
       </c>
       <c r="D7" t="n">
-        <v>0.507388272101434</v>
+        <v>0.6700771862087795</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06592000855683607</v>
+        <v>0.603500459693276</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.069843802016236</v>
+        <v>0.4747572879298369</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>128</v>
       </c>
       <c r="B8" t="n">
-        <v>0.840872775566155</v>
+        <v>-0.6236163529475846</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5828245486022058</v>
+        <v>-0.8998010292199964</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6100865086787117</v>
+        <v>0.5672228593080844</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04975174228935721</v>
+        <v>0.6738926819857444</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.028002128516505</v>
+        <v>0.7175197718313283</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>129</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8134512585923321</v>
+        <v>-1.066248593896359</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.038529997095743</v>
+        <v>-0.2450315523050231</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2124439331619568</v>
+        <v>0.3108358421079784</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5633837288976663</v>
+        <v>-0.1235858160728509</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2452454928071178</v>
+        <v>0.9217806455171299</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>130</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4750663261027555</v>
+        <v>-0.4074173686927936</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3194637610110794</v>
+        <v>-0.5303391088556951</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4336218449200328</v>
+        <v>0.56820294234344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1323581228584259</v>
+        <v>0.4253280493817469</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7678612713898635</v>
+        <v>0.4031646677311138</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>131</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5490698831407875</v>
+        <v>-0.6842064541239332</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6475513573287679</v>
+        <v>-0.5551763663655114</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2747925677849259</v>
+        <v>0.2845878356876668</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03769310948823682</v>
+        <v>0.3424693409602128</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6383013045698461</v>
+        <v>0.4788985769886546</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>132</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7644328022517729</v>
+        <v>-0.1859315980365618</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1181684588493311</v>
+        <v>-0.689674612781386</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7244773737503267</v>
+        <v>0.7686854326480302</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1258484310232508</v>
+        <v>0.5586346519700895</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8770883157111338</v>
+        <v>0.6964302205162687</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>133</v>
       </c>
       <c r="B13" t="n">
-        <v>1.188689945321366</v>
+        <v>-0.3678404685970402</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3897245187016107</v>
+        <v>-0.6801396807497889</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8102343567648483</v>
+        <v>0.6800263060014234</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2631341996781179</v>
+        <v>0.3838996478003269</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6306926602225693</v>
+        <v>1.213073131441505</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>134</v>
       </c>
       <c r="B14" t="n">
-        <v>1.278311519147492</v>
+        <v>-0.06765855442595678</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1043275843909989</v>
+        <v>-0.4387326077260594</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9408741793960239</v>
+        <v>0.809122568492289</v>
       </c>
       <c r="E14" t="n">
-        <v>0.504550814869857</v>
+        <v>0.182584622772954</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3411436431948695</v>
+        <v>1.419642515972609</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>135</v>
       </c>
       <c r="B15" t="n">
-        <v>1.252891072791505</v>
+        <v>-1.128872316045369</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.174342491973834</v>
+        <v>-0.03335496093892786</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4486541366787428</v>
+        <v>0.4078925846921888</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9482158383498038</v>
+        <v>-0.383065267504782</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1240276796547378</v>
+        <v>1.569728110306886</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>136</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7228972107656433</v>
+        <v>-0.01188999374952263</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05522810617084959</v>
+        <v>-0.5604438733718814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8556409810647118</v>
+        <v>0.8860016993468802</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2135318237464847</v>
+        <v>0.5680985434170236</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8058784118323848</v>
+        <v>0.7323169425448459</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>137</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6532797780510562</v>
+        <v>-0.1686560498362979</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2019328788729235</v>
+        <v>-0.5769208238365569</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6674159996508234</v>
+        <v>0.4365861618264427</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.09678575798998283</v>
+        <v>0.5946318423127995</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.636723902988618</v>
+        <v>0.6516292319778195</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>138</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4764933373968467</v>
+        <v>-0.2144114450073906</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2306830533823276</v>
+        <v>0.2571193809117734</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2974008606520405</v>
+        <v>0.301133043813878</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6128898426727003</v>
+        <v>-0.3011021346051929</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2810517379321701</v>
+        <v>0.7262521913250757</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>139</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2940544131594426</v>
+        <v>0.2731806618591029</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3130880856196814</v>
+        <v>-0.1976943559956844</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5280041330006972</v>
+        <v>0.5450818337945472</v>
       </c>
       <c r="E19" t="n">
-        <v>0.130202838284032</v>
+        <v>0.3043848771009581</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3609373946452035</v>
+        <v>0.3258723918903909</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>140</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2279470856356579</v>
+        <v>-0.2085172827962554</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2492802094625272</v>
+        <v>0.05658247552647187</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08203304021346365</v>
+        <v>-0.006575197416509177</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1542040059037807</v>
+        <v>-0.09313252252836832</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1264208996839336</v>
+        <v>0.3259632568254846</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>141</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3085310448795189</v>
+        <v>0.4569450525474941</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4639643897001769</v>
+        <v>-0.2341400724174501</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5654122103311334</v>
+        <v>0.5094173139770377</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02333740090469593</v>
+        <v>0.3509216031046162</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3387898018186516</v>
+        <v>0.3169667895586658</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>142</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2039575620261941</v>
+        <v>-0.1682206824688919</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2262497083982551</v>
+        <v>0.1899730859618868</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02595629243720149</v>
+        <v>-0.08155194751432215</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2150505048247773</v>
+        <v>-0.2255992970150165</v>
       </c>
       <c r="F22" t="n">
-        <v>0.311738831883135</v>
+        <v>0.3411765000874772</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>143</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1010128497698602</v>
+        <v>0.4609431912443552</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4627676240960853</v>
+        <v>0.03269771498074955</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3566889229762305</v>
+        <v>0.3271494592782669</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0933931046475925</v>
+        <v>0.1211537313686448</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.03670246134478015</v>
+        <v>0.16286861397511</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>144</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.07788658305563699</v>
+        <v>0.3709197740623949</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2914039782021174</v>
+        <v>0.0976373279187373</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08164025290532248</v>
+        <v>-0.1357508387173373</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.1825606485030695</v>
+        <v>0.05991422288704012</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1946287909554876</v>
+        <v>-0.0378939334472334</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>145</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1436068701395703</v>
+        <v>0.2638981582871746</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2229121774364796</v>
+        <v>0.4353593150050898</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01912444026500618</v>
+        <v>-0.07104414484977714</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2016917232534472</v>
+        <v>-0.2803338605325877</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4766231424924983</v>
+        <v>0.01928911532328704</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>146</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.07980858547039373</v>
+        <v>0.01978382163819085</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02504429691386426</v>
+        <v>0.1718721177033289</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02236611387947953</v>
+        <v>0.02655709095254156</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1139960001162725</v>
+        <v>-0.06692084102296231</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1213573798011001</v>
+        <v>0.001506127401743947</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>147</v>
       </c>
       <c r="B27" t="n">
-        <v>0.03965977379070349</v>
+        <v>0.008261453813167261</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03499217428111766</v>
+        <v>-0.1155747415109474</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1592088840480189</v>
+        <v>0.1711050818685412</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.0120462062353223</v>
+        <v>0.1795518137615884</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2259809730625884</v>
+        <v>0.02666448394783716</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>148</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1175660292805523</v>
+        <v>-0.2488284963046538</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2224462938364656</v>
+        <v>-0.02070028438707946</v>
       </c>
       <c r="D28" t="n">
-        <v>0.03316098926945277</v>
+        <v>0.09080329985443741</v>
       </c>
       <c r="E28" t="n">
-        <v>0.149913194481074</v>
+        <v>-0.02903339638624601</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.06405928505453827</v>
+        <v>0.1476744990680831</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>149</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.05045784809469927</v>
+        <v>0.05842385028962447</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06819846431720537</v>
+        <v>-0.03822873865311362</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02739934333384322</v>
+        <v>0.02607422117105793</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.05977350951386755</v>
+        <v>0.07804524722668771</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07759089264481143</v>
+        <v>-0.06825757935724876</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>150</v>
       </c>
       <c r="B30" t="n">
-        <v>0.07540428103643684</v>
+        <v>0.3777924635451405</v>
       </c>
       <c r="C30" t="n">
-        <v>0.340235329346502</v>
+        <v>-0.2837122397693789</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2929663638590525</v>
+        <v>0.1098844048326704</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3329838040435736</v>
+        <v>0.4045778262472164</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.2902873755388936</v>
+        <v>-0.0008574879449852614</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>151</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2191380113942882</v>
+        <v>0.2424714952266221</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1602546767841288</v>
+        <v>0.0870141696997226</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2360361930062767</v>
+        <v>0.03132045773595626</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04810575121240389</v>
+        <v>-0.01973304148220581</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2138513830573067</v>
+        <v>0.3339589717878992</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>152</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2366730994913331</v>
+        <v>0.1754926704736444</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1390842738949216</v>
+        <v>0.2861572655154256</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2207805863886883</v>
+        <v>0.1762461589226719</v>
       </c>
       <c r="E32" t="n">
-        <v>0.3746841898062394</v>
+        <v>-0.243748658747654</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3492401620540977</v>
+        <v>0.4242452178820676</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>153</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1150660807453599</v>
+        <v>0.4267530891558107</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4119474670094305</v>
+        <v>0.03982937663219487</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3084260726733978</v>
+        <v>0.2429246830450189</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06780549477073805</v>
+        <v>0.08179020398815998</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02509533479326946</v>
+        <v>0.1820109769794786</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>154</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4126497391120924</v>
+        <v>0.2297040377951318</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1743284753686207</v>
+        <v>-0.08220098570384252</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4126526534761439</v>
+        <v>0.249679428605272</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09941595659440615</v>
+        <v>0.09912477917583153</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.004791744199923875</v>
+        <v>0.500468605044475</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>155</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4024907909414022</v>
+        <v>-0.5427961244103638</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.5504166010578246</v>
+        <v>0.3439812993680653</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01395912374551197</v>
+        <v>0.09142319404640423</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6726475088329381</v>
+        <v>-0.513654486538928</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4232839400293255</v>
+        <v>0.6492624657167427</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>156</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2143898652411702</v>
+        <v>0.05256654196049455</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1403974618630731</v>
+        <v>-0.3017307959314147</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4100971577705623</v>
+        <v>0.5508185270456771</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1054470851923308</v>
+        <v>0.3494665661339746</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.5537474816517212</v>
+        <v>0.1692820552581781</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>157</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2267885826928581</v>
+        <v>0.264513672512816</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2144469350795823</v>
+        <v>-0.4904596184484737</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4003406227793132</v>
+        <v>0.1535413359400152</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.4308569467376459</v>
+        <v>0.5808630992094043</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4883654293603324</v>
+        <v>0.1160405563753655</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>158</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1415657169268609</v>
+        <v>-0.2590399883799437</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3175884551520246</v>
+        <v>0.4112716595452386</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.08507869521015782</v>
+        <v>-0.1383746099307256</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3981106190084807</v>
+        <v>-0.4463053939306956</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5490812281563243</v>
+        <v>0.3601145188780243</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>159</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.08901968924610834</v>
+        <v>1.193353468609366</v>
       </c>
       <c r="C39" t="n">
-        <v>1.219366533074132</v>
+        <v>-0.1630732673171168</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5805953536811986</v>
+        <v>0.5382667784158531</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.2383281131218916</v>
+        <v>0.4880587700642561</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3399615071161821</v>
+        <v>-0.1588074192279787</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>160</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1787724539898319</v>
+        <v>-0.05162895936106342</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2015632379136283</v>
+        <v>0.4104546234306725</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1704731280258243</v>
+        <v>-0.4184855972621542</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1804829184435001</v>
+        <v>-0.5063439151395327</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7789185005448767</v>
+        <v>0.3672868293069751</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>161</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.2620865776766074</v>
+        <v>-0.2807145156684741</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2632323842932849</v>
+        <v>1.018370256472878</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.5822804400987239</v>
+        <v>-0.3015924429050477</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8327882320181594</v>
+        <v>-1.125790516623328</v>
       </c>
       <c r="F41" t="n">
-        <v>1.144224351420538</v>
+        <v>0.04062978397564471</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>162</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.5894806765812233</v>
+        <v>0.464835292210326</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5485741002082422</v>
+        <v>-0.1795401492655611</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1748063560355197</v>
+        <v>-0.03126860761729772</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.4804996200520291</v>
+        <v>0.335379567035667</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.3678234986307284</v>
+        <v>-0.8289498463480408</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>163</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.5990849003016628</v>
+        <v>-0.1454670681670699</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2130573328504904</v>
+        <v>0.3506972092005211</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.7958955706534445</v>
+        <v>-0.8647239590508344</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.3179328835633913</v>
+        <v>-0.4105167033069646</v>
       </c>
       <c r="F43" t="n">
-        <v>0.590043301423777</v>
+        <v>-0.6632605378137977</v>
       </c>
     </row>
     <row r="44">
@@ -1305,19 +1305,19 @@
         <v>164</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.2452291471063113</v>
+        <v>0.4675092774426484</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5013600582019709</v>
+        <v>0.04855051685506345</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1071380373679713</v>
+        <v>-0.005832517247705556</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.1205735422511923</v>
+        <v>-0.04189195622784313</v>
       </c>
       <c r="F44" t="n">
-        <v>0.05264321804057517</v>
+        <v>-0.3334520638018194</v>
       </c>
     </row>
     <row r="45">
@@ -1325,19 +1325,19 @@
         <v>165</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.2365928586949072</v>
+        <v>-0.6277037753346555</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.6378277686419702</v>
+        <v>0.4558146747741726</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.8003418820463972</v>
+        <v>-0.6403109401366509</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2422711040223984</v>
+        <v>-0.7733122602936277</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6979311171332486</v>
+        <v>-0.1938360730873196</v>
       </c>
     </row>
     <row r="46">
@@ -1345,19 +1345,19 @@
         <v>166</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.4755923915881715</v>
+        <v>-1.496096118631035</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.312384025450172</v>
+        <v>0.7192583803071647</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.314200344122428</v>
+        <v>-0.5611918767802867</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8398886437298816</v>
+        <v>-1.274422622811367</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7017229822331114</v>
+        <v>-0.4268992623382664</v>
       </c>
     </row>
     <row r="47">
@@ -1365,19 +1365,19 @@
         <v>167</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.8686983460759995</v>
+        <v>-1.459707648621563</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.137447676474458</v>
+        <v>-0.3925241863900857</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.308015400076433</v>
+        <v>-0.4427698642275873</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.2268080717749456</v>
+        <v>-0.1238787425926069</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.7698157960556349</v>
+        <v>-1.381025341710237</v>
       </c>
     </row>
     <row r="48">
@@ -1385,19 +1385,19 @@
         <v>168</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.06786104667554</v>
+        <v>-2.810225044767429</v>
       </c>
       <c r="C48" t="n">
-        <v>-2.499656407093183</v>
+        <v>-0.262712558342473</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.231792473143308</v>
+        <v>-1.2758497813699</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.2058209041094968</v>
+        <v>-0.6353810968749503</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.4556810169939288</v>
+        <v>-1.624904683274634</v>
       </c>
     </row>
     <row r="49">
@@ -1405,19 +1405,19 @@
         <v>169</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.387210840529409</v>
+        <v>-2.909331326223843</v>
       </c>
       <c r="C49" t="n">
-        <v>-2.414982465949206</v>
+        <v>-0.6451204183271305</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.327740935076144</v>
+        <v>-0.9896525568394767</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.3882680534854667</v>
+        <v>-0.2717563013184977</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.194560711202646</v>
+        <v>-2.20041785941927</v>
       </c>
     </row>
     <row r="50">
@@ -1425,19 +1425,19 @@
         <v>170</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.652573816892368</v>
+        <v>-2.16050590160576</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.7205750832567</v>
+        <v>-1.515263771072296</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.151283966265796</v>
+        <v>-1.139018598102211</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.631665278484021</v>
+        <v>0.7588933979097601</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.060025121185948</v>
+        <v>-2.894018761821923</v>
       </c>
     </row>
     <row r="51">
@@ -1445,19 +1445,19 @@
         <v>171</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.295769391486232</v>
+        <v>-3.12791017768815</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.847579813099349</v>
+        <v>-0.9814847551005486</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.582499150515968</v>
+        <v>-1.793415923801321</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.149587334143367</v>
+        <v>-0.05947982818031468</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.093283095132805</v>
+        <v>-2.239174457369397</v>
       </c>
     </row>
     <row r="52">
@@ -1465,19 +1465,19 @@
         <v>172</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.363271725594993</v>
+        <v>-2.628299319218515</v>
       </c>
       <c r="C52" t="n">
-        <v>-2.233296763011561</v>
+        <v>-1.00351692044577</v>
       </c>
       <c r="D52" t="n">
-        <v>-2.206751716213157</v>
+        <v>-1.186210855228885</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.9653853046152143</v>
+        <v>0.1556474237152522</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.421838197289712</v>
+        <v>-2.307715696128609</v>
       </c>
     </row>
     <row r="53">
@@ -1485,19 +1485,19 @@
         <v>173</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.9399522745438893</v>
+        <v>-2.091513298750568</v>
       </c>
       <c r="C53" t="n">
-        <v>-1.720218309494449</v>
+        <v>-1.880119135937144</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.421894216086209</v>
+        <v>-0.6851179401791206</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.573305537914071</v>
+        <v>1.16735404101551</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.40259362347717</v>
+        <v>-2.090792832325939</v>
       </c>
     </row>
     <row r="54">
@@ -1505,19 +1505,19 @@
         <v>174</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.6507331039286399</v>
+        <v>-2.291337955663221</v>
       </c>
       <c r="C54" t="n">
-        <v>-2.076149670989854</v>
+        <v>-1.034363354738924</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.680009691595977</v>
+        <v>-1.123236767214227</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.9076789082628587</v>
+        <v>0.157829069905726</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.097987954453382</v>
+        <v>-1.413544467515949</v>
       </c>
     </row>
     <row r="55">
@@ -1525,19 +1525,19 @@
         <v>175</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.7369457904571561</v>
+        <v>-1.877723665946589</v>
       </c>
       <c r="C55" t="n">
-        <v>-1.620550291471691</v>
+        <v>-0.7542762669569358</v>
       </c>
       <c r="D55" t="n">
-        <v>-1.504833435557565</v>
+        <v>-0.8188557440745339</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6144787086721016</v>
+        <v>0.03394392833157438</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9417782769907825</v>
+        <v>-1.38854428631982</v>
       </c>
     </row>
     <row r="56">
@@ -1545,19 +1545,19 @@
         <v>176</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.372999335417229</v>
+        <v>-1.622080488380375</v>
       </c>
       <c r="C56" t="n">
-        <v>-1.409158587473516</v>
+        <v>-0.4120711726704629</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.938963543506118</v>
+        <v>-1.332660327696564</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.914368455796928</v>
+        <v>-0.1164896690014263</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5391645104369084</v>
+        <v>-2.038201859440459</v>
       </c>
     </row>
     <row r="57">
@@ -1565,19 +1565,19 @@
         <v>177</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.435502841779678</v>
+        <v>-0.6520525248230047</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.4728990664961097</v>
+        <v>-0.6574041878141612</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.463654572725649</v>
+        <v>-1.057065435801687</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.342956978343464</v>
+        <v>0.422878993304479</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8459325606066525</v>
+        <v>-2.186360413155902</v>
       </c>
     </row>
     <row r="58">
@@ -1585,19 +1585,19 @@
         <v>178</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.281188903291902</v>
+        <v>0.05154481931681181</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06674832473404702</v>
+        <v>-0.5256999979331271</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.153045673181794</v>
+        <v>-1.164524879371466</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.533111572478855</v>
+        <v>0.4782626624229956</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.4597070858056688</v>
+        <v>-1.915808957002011</v>
       </c>
     </row>
     <row r="59">
@@ -1605,19 +1605,19 @@
         <v>179</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.033686685444013</v>
+        <v>0.9307066460548765</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8248685867672867</v>
+        <v>0.02168793094498935</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.7042208907032351</v>
+        <v>-0.9754299635601081</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.164462658529202</v>
+        <v>0.1591124439535794</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2897963305704924</v>
+        <v>-1.35332446495953</v>
       </c>
     </row>
     <row r="60">
@@ -1625,19 +1625,19 @@
         <v>180</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.7728224610533919</v>
+        <v>1.323544565809045</v>
       </c>
       <c r="C60" t="n">
-        <v>1.128252556357217</v>
+        <v>0.5770406378852282</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.4464220044585913</v>
+        <v>-0.8496896027460223</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.6522938090341434</v>
+        <v>-0.2941029584244011</v>
       </c>
       <c r="F60" t="n">
-        <v>1.003165181251641</v>
+        <v>-0.7864579913525858</v>
       </c>
     </row>
     <row r="61">
@@ -1645,19 +1645,19 @@
         <v>181</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.5963502756222918</v>
+        <v>1.893107814170701</v>
       </c>
       <c r="C61" t="n">
-        <v>1.678596802964439</v>
+        <v>0.8202202695316313</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.03406005698413676</v>
+        <v>-0.4727006751180941</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3423510049961779</v>
+        <v>-0.3704488924509109</v>
       </c>
       <c r="F61" t="n">
-        <v>1.229782438746871</v>
+        <v>-0.4360081236109087</v>
       </c>
     </row>
     <row r="62">
@@ -1665,19 +1665,19 @@
         <v>182</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.2524639849853851</v>
+        <v>2.332652509848331</v>
       </c>
       <c r="C62" t="n">
-        <v>2.040953714324665</v>
+        <v>0.7612711126096918</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4347708178021255</v>
+        <v>-0.2443647945274711</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3398567585813909</v>
+        <v>-0.20072333283192</v>
       </c>
       <c r="F62" t="n">
-        <v>1.260157414282814</v>
+        <v>0.001871756925475838</v>
       </c>
     </row>
     <row r="63">
@@ -1685,19 +1685,19 @@
         <v>183</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.4885783677405073</v>
+        <v>2.164276853219351</v>
       </c>
       <c r="C63" t="n">
-        <v>1.855504943262019</v>
+        <v>1.730135940432583</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.06017078625871275</v>
+        <v>-0.5668189323128453</v>
       </c>
       <c r="E63" t="n">
-        <v>0.3758331709472115</v>
+        <v>-1.220881659704148</v>
       </c>
       <c r="F63" t="n">
-        <v>2.382260277982479</v>
+        <v>0.07076253614846345</v>
       </c>
     </row>
     <row r="64">
@@ -1705,19 +1705,19 @@
         <v>184</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.6595410995148081</v>
+        <v>2.978344140014484</v>
       </c>
       <c r="C64" t="n">
-        <v>2.73905387743337</v>
+        <v>1.385646201141943</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4031422369682779</v>
+        <v>-0.08178646762337194</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02631292397117655</v>
+        <v>-0.580985494140482</v>
       </c>
       <c r="F64" t="n">
-        <v>1.763327582155833</v>
+        <v>-0.2502147430438344</v>
       </c>
     </row>
     <row r="65">
@@ -1725,19 +1725,19 @@
         <v>185</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3771878917687414</v>
+        <v>2.140073871772934</v>
       </c>
       <c r="C65" t="n">
-        <v>1.784049322247606</v>
+        <v>1.499172746382211</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06473084376248125</v>
+        <v>-0.6175360327974884</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1343137577309831</v>
+        <v>-0.9615972308862116</v>
       </c>
       <c r="F65" t="n">
-        <v>2.187818997188419</v>
+        <v>0.1368461891727279</v>
       </c>
     </row>
     <row r="66">
@@ -1745,19 +1745,19 @@
         <v>186</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01594967311351502</v>
+        <v>1.64449713821606</v>
       </c>
       <c r="C66" t="n">
-        <v>1.44488209291607</v>
+        <v>1.247329706764562</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4759353280518725</v>
+        <v>0.1277187521343904</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6459934311473838</v>
+        <v>-0.7679587533213376</v>
       </c>
       <c r="F66" t="n">
-        <v>1.56413628329874</v>
+        <v>0.5638525408952652</v>
       </c>
     </row>
     <row r="67">
@@ -1765,19 +1765,19 @@
         <v>187</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2428271493937212</v>
+        <v>1.627729537373329</v>
       </c>
       <c r="C67" t="n">
-        <v>1.455427779560063</v>
+        <v>0.5793521299291057</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7997828569390378</v>
+        <v>0.3788406820984628</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2373941228902207</v>
+        <v>-0.1243741069851632</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7905814542044268</v>
+        <v>0.5974070430720394</v>
       </c>
     </row>
     <row r="68">
@@ -1785,19 +1785,19 @@
         <v>188</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6087225394447995</v>
+        <v>0.8450544709336858</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6630640227808953</v>
+        <v>0.6475697607749684</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6846448944944237</v>
+        <v>0.3055008023906465</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6261044111126369</v>
+        <v>-0.439457906025442</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9486775110862227</v>
+        <v>1.069825358819247</v>
       </c>
     </row>
     <row r="69">
@@ -1805,19 +1805,19 @@
         <v>189</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6540386359894</v>
+        <v>0.8936862473210596</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7888977170431947</v>
+        <v>0.4511542072732875</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8805482192307005</v>
+        <v>0.6394408222173238</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6569672769115631</v>
+        <v>-0.2170965251937176</v>
       </c>
       <c r="F69" t="n">
-        <v>0.5681858987084266</v>
+        <v>1.063755673127027</v>
       </c>
     </row>
     <row r="70">
@@ -1825,19 +1825,19 @@
         <v>190</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7900494747676154</v>
+        <v>1.149917896734154</v>
       </c>
       <c r="C70" t="n">
-        <v>1.016276345494699</v>
+        <v>0.01299213277305675</v>
       </c>
       <c r="D70" t="n">
-        <v>1.137330427298922</v>
+        <v>0.7322610924951032</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2508294798309227</v>
+        <v>0.2509856612563123</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1389226835681676</v>
+        <v>1.049709590821956</v>
       </c>
     </row>
     <row r="71">
@@ -1845,19 +1845,19 @@
         <v>191</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8763335860272519</v>
+        <v>0.8031913385158793</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6536158935640026</v>
+        <v>0.4575139571019447</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8808247974757583</v>
+        <v>0.5729547894494486</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7400203494032378</v>
+        <v>-0.3518142700052017</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7245524186406033</v>
+        <v>1.316051242250746</v>
       </c>
     </row>
     <row r="72">
@@ -1865,19 +1865,19 @@
         <v>192</v>
       </c>
       <c r="B72" t="n">
-        <v>1.006115177564305</v>
+        <v>1.555551022092523</v>
       </c>
       <c r="C72" t="n">
-        <v>1.410576868246259</v>
+        <v>0.07387755660530071</v>
       </c>
       <c r="D72" t="n">
-        <v>1.41165413677556</v>
+        <v>1.001382816475741</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4304349838606032</v>
+        <v>0.1986820613231531</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2399828598946482</v>
+        <v>1.329982142386687</v>
       </c>
     </row>
     <row r="73">
@@ -1885,19 +1885,19 @@
         <v>193</v>
       </c>
       <c r="B73" t="n">
-        <v>1.208500450369294</v>
+        <v>0.7606012836070757</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5059280052428156</v>
+        <v>0.4348811839238881</v>
       </c>
       <c r="D73" t="n">
-        <v>1.001394407068141</v>
+        <v>0.44073501845073</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7172614904192501</v>
+        <v>-0.4025211843106514</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9180409288934051</v>
+        <v>1.720889758708056</v>
       </c>
     </row>
     <row r="74">
@@ -1905,19 +1905,19 @@
         <v>194</v>
       </c>
       <c r="B74" t="n">
-        <v>1.00713155051426</v>
+        <v>0.627861526092616</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5241153371237735</v>
+        <v>0.6657795955761905</v>
       </c>
       <c r="D74" t="n">
-        <v>0.9640563725583576</v>
+        <v>0.8067484402714846</v>
       </c>
       <c r="E74" t="n">
-        <v>1.173620238546669</v>
+        <v>-0.5750531527219722</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8402724766230513</v>
+        <v>1.576549922791562</v>
       </c>
     </row>
     <row r="75">
@@ -1925,19 +1925,19 @@
         <v>195</v>
       </c>
       <c r="B75" t="n">
-        <v>1.121722380758891</v>
+        <v>0.2351483793741609</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1506584851708066</v>
+        <v>-0.05588500426141903</v>
       </c>
       <c r="D75" t="n">
-        <v>1.10752002419954</v>
+        <v>0.8355323841649003</v>
       </c>
       <c r="E75" t="n">
-        <v>0.636145994197746</v>
+        <v>0.1246598405920868</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.005293206649140525</v>
+        <v>1.46194861061578</v>
       </c>
     </row>
     <row r="76">
@@ -1945,19 +1945,19 @@
         <v>196</v>
       </c>
       <c r="B76" t="n">
-        <v>1.05411343234501</v>
+        <v>-0.03306053237498422</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.1119398017441591</v>
+        <v>-0.02860724748156417</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9120126797721009</v>
+        <v>0.6979122834472389</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6558154372042712</v>
+        <v>0.021751506357968</v>
       </c>
       <c r="F76" t="n">
-        <v>0.03385277232910621</v>
+        <v>1.378671719093089</v>
       </c>
     </row>
     <row r="77">
@@ -1965,19 +1965,19 @@
         <v>197</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8430058747052818</v>
+        <v>-0.06193048024492557</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.06480293480142957</v>
+        <v>-0.04388411289569135</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8481039135389118</v>
+        <v>0.7977107529230842</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6601181708857754</v>
+        <v>0.09168084985516058</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.1513540574451601</v>
+        <v>1.119080329559884</v>
       </c>
     </row>
     <row r="78">
@@ -1985,19 +1985,19 @@
         <v>198</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4892292588177471</v>
+        <v>0.2943283762151955</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2430005191794807</v>
+        <v>0.04914844279730531</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5744123853211808</v>
+        <v>0.4122769644109784</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2997162165080915</v>
+        <v>0.05060359572489244</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0748425098349422</v>
+        <v>0.6768388603685463</v>
       </c>
     </row>
     <row r="79">
@@ -2005,19 +2005,19 @@
         <v>199</v>
       </c>
       <c r="B79" t="n">
-        <v>0.583351162640813</v>
+        <v>0.5303266292951262</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4518735696326492</v>
+        <v>-0.1488253486965446</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7627770948950225</v>
+        <v>0.5017839255882252</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1149276471673189</v>
+        <v>0.2872695575837488</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.1047245906632986</v>
+        <v>0.7194789609544411</v>
       </c>
     </row>
     <row r="80">
@@ -2025,19 +2025,19 @@
         <v>200</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5572371864845646</v>
+        <v>0.2940568119867991</v>
       </c>
       <c r="C80" t="n">
-        <v>0.168370383359418</v>
+        <v>0.3292784176221659</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4652013628784619</v>
+        <v>0.190181102168053</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4407509570758493</v>
+        <v>-0.271983713125049</v>
       </c>
       <c r="F80" t="n">
-        <v>0.548821629318854</v>
+        <v>0.8613022580831885</v>
       </c>
     </row>
     <row r="81">
@@ -2045,19 +2045,19 @@
         <v>201</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4485879536766139</v>
+        <v>0.1589418499632877</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09560225857188666</v>
+        <v>0.408687797758917</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3686033178411869</v>
+        <v>0.2827446169506415</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6099456445053157</v>
+        <v>-0.3713953007180428</v>
       </c>
       <c r="F81" t="n">
-        <v>0.514684005023361</v>
+        <v>0.7551770934821741</v>
       </c>
     </row>
     <row r="82">
@@ -2065,19 +2065,19 @@
         <v>202</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3118782747731624</v>
+        <v>0.1606843657568343</v>
       </c>
       <c r="C82" t="n">
-        <v>0.155661808427525</v>
+        <v>0.1245354847059956</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3504470569558758</v>
+        <v>0.3415493031837384</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3522950457514992</v>
+        <v>-0.08327335188559556</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106829492093457</v>
+        <v>0.4682874760503343</v>
       </c>
     </row>
     <row r="83">
@@ -2085,19 +2085,19 @@
         <v>203</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4510739348148332</v>
+        <v>-0.2918137708929858</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.2967862576878448</v>
+        <v>0.03908755266337097</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2187234008014089</v>
+        <v>0.2366490200949264</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4102930089639577</v>
+        <v>-0.1614137254415069</v>
       </c>
       <c r="F83" t="n">
-        <v>0.07228352795899573</v>
+        <v>0.5917973179336633</v>
       </c>
     </row>
     <row r="84">
@@ -2105,19 +2105,19 @@
         <v>204</v>
       </c>
       <c r="B84" t="n">
-        <v>0.4020591634361019</v>
+        <v>-0.4840865814926556</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.4461171122603942</v>
+        <v>-0.02796346339235007</v>
       </c>
       <c r="D84" t="n">
-        <v>0.1118589106183321</v>
+        <v>0.2514474090604735</v>
       </c>
       <c r="E84" t="n">
-        <v>0.435568046759664</v>
+        <v>-0.165639834352653</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.06074968845964364</v>
+        <v>0.4811847548128441</v>
       </c>
     </row>
     <row r="85">
@@ -2125,19 +2125,19 @@
         <v>205</v>
       </c>
       <c r="B85" t="n">
-        <v>0.2097675241500286</v>
+        <v>-0.4759130828070468</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.3932586890922852</v>
+        <v>-0.2270657996976609</v>
       </c>
       <c r="D85" t="n">
-        <v>0.03402927906986467</v>
+        <v>0.2197917679085009</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1745169973413608</v>
+        <v>0.05841629215816621</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3515071562143669</v>
+        <v>0.1603205353413614</v>
       </c>
     </row>
     <row r="86">
@@ -2145,19 +2145,19 @@
         <v>206</v>
       </c>
       <c r="B86" t="n">
-        <v>0.2098775334201561</v>
+        <v>-0.6433043382199205</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.564913669660421</v>
+        <v>-0.2751535428295461</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.08949230629726591</v>
+        <v>0.1097441104190167</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1316453739511185</v>
+        <v>0.02281778334194235</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3619936429577927</v>
+        <v>0.1178877644689141</v>
       </c>
     </row>
     <row r="87">
@@ -2165,19 +2165,19 @@
         <v>207</v>
       </c>
       <c r="B87" t="n">
-        <v>0.08688667897706996</v>
+        <v>-0.5871315280568123</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.4780020717195202</v>
+        <v>-0.2748246532551703</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.1781250647691935</v>
+        <v>0.09640884459311261</v>
       </c>
       <c r="E87" t="n">
-        <v>0.09103202371491688</v>
+        <v>0.01248540994145719</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.3886992710163241</v>
+        <v>-0.04270469623718018</v>
       </c>
     </row>
     <row r="88">
@@ -2185,19 +2185,19 @@
         <v>208</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1419142828220793</v>
+        <v>-0.3712977212651765</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.297056764391297</v>
+        <v>-0.5351460869901397</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.02583435383037505</v>
+        <v>0.1164559756991561</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.2042547598134973</v>
+        <v>0.3140706815565449</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6263066848818337</v>
+        <v>-0.08401079369513881</v>
       </c>
     </row>
     <row r="89">
@@ -2205,19 +2205,19 @@
         <v>209</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1912903545022288</v>
+        <v>-0.2720508057620359</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.282135580056242</v>
+        <v>-0.3667814984793527</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.06094042871327052</v>
+        <v>-0.09817525444679195</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.2232751101738373</v>
+        <v>0.1571115110656126</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.2726313649281745</v>
+        <v>0.05110454214670487</v>
       </c>
     </row>
     <row r="90">
@@ -2225,19 +2225,19 @@
         <v>210</v>
       </c>
       <c r="B90" t="n">
-        <v>0.2697532506534617</v>
+        <v>-0.3229740497448256</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.3225722821324529</v>
+        <v>-0.1808568073849803</v>
       </c>
       <c r="D90" t="n">
-        <v>0.01051167104907268</v>
+        <v>0.0195848364177722</v>
       </c>
       <c r="E90" t="n">
-        <v>0.05451385784873066</v>
+        <v>-0.004709777236603998</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.1192916915779855</v>
+        <v>0.2441784353226838</v>
       </c>
     </row>
     <row r="91">
@@ -2245,19 +2245,19 @@
         <v>211</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1295257120380468</v>
+        <v>0.03071001558669056</v>
       </c>
       <c r="C91" t="n">
-        <v>0.02480649778254465</v>
+        <v>-0.1018793892521364</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06556704858905346</v>
+        <v>0.05579252871187146</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.01019457035970911</v>
+        <v>0.0353620824839142</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.06785902033160544</v>
+        <v>0.09968430881609298</v>
       </c>
     </row>
     <row r="92">
@@ -2265,19 +2265,19 @@
         <v>212</v>
       </c>
       <c r="B92" t="n">
-        <v>0.144546146022545</v>
+        <v>-0.4785285100689072</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.489657513873751</v>
+        <v>0.1073273360192172</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.1879875402094591</v>
+        <v>-0.1453425047894997</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2250645358482618</v>
+        <v>-0.2856824716901982</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1979897660625265</v>
+        <v>0.2064362952949672</v>
       </c>
     </row>
     <row r="93">
@@ -2285,19 +2285,19 @@
         <v>213</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0553611601749787</v>
+        <v>0.07628321626062257</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1353053886254303</v>
+        <v>-0.188839578345308</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1237994226094303</v>
+        <v>0.2557992161496837</v>
       </c>
       <c r="E93" t="n">
-        <v>0.00946949232572436</v>
+        <v>0.1535746511056606</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3050379434277473</v>
+        <v>-0.02230324751115055</v>
       </c>
     </row>
     <row r="94">
@@ -2305,19 +2305,19 @@
         <v>214</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2059101605612624</v>
+        <v>-0.5782100017674794</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.5589485498395765</v>
+        <v>-0.1018051829211048</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.1609991459928188</v>
+        <v>-0.0660721469663893</v>
       </c>
       <c r="E94" t="n">
-        <v>0.151243735203431</v>
+        <v>-0.1424059298600619</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05819517759625891</v>
+        <v>0.1808315761967795</v>
       </c>
     </row>
     <row r="95">
@@ -2325,19 +2325,19 @@
         <v>215</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2307971865768143</v>
+        <v>-0.398852292794716</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.3200145515356512</v>
+        <v>-0.1848703701187449</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.005805610365591843</v>
+        <v>0.2153346777873827</v>
       </c>
       <c r="E95" t="n">
-        <v>0.222056795374678</v>
+        <v>-0.04155895653316656</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2596232826700452</v>
+        <v>0.1768389325019387</v>
       </c>
     </row>
     <row r="96">
@@ -2345,19 +2345,19 @@
         <v>216</v>
       </c>
       <c r="B96" t="n">
-        <v>0.193817663403115</v>
+        <v>-0.2553606413977252</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2077925899560474</v>
+        <v>-0.469947719826694</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0529105419482341</v>
+        <v>0.1287386488650348</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.1757632501231195</v>
+        <v>0.2888331243538033</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.5165425868392723</v>
+        <v>0.0209839556203861</v>
       </c>
     </row>
     <row r="97">
@@ -2365,19 +2365,19 @@
         <v>217</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3794769827558093</v>
+        <v>-0.3890617195134284</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.3741335208426402</v>
+        <v>-0.2925849283737615</v>
       </c>
       <c r="D97" t="n">
-        <v>0.05159260504358874</v>
+        <v>0.100736628907404</v>
       </c>
       <c r="E97" t="n">
-        <v>0.07622697290319232</v>
+        <v>0.03430905407700711</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2408267105659932</v>
+        <v>0.311713402226959</v>
       </c>
     </row>
     <row r="98">
@@ -2385,19 +2385,19 @@
         <v>218</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4320880865061527</v>
+        <v>-0.3543851349485836</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.3471596317300213</v>
+        <v>-0.2617897603213614</v>
       </c>
       <c r="D98" t="n">
-        <v>0.1287074199473199</v>
+        <v>0.1523951434339529</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1282490821181087</v>
+        <v>0.03161208728445964</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.2104696452235252</v>
+        <v>0.4093868553962648</v>
       </c>
     </row>
     <row r="99">
@@ -2405,19 +2405,19 @@
         <v>219</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4719226540816675</v>
+        <v>0.357877926372076</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3181367935957591</v>
+        <v>-0.5311837409736218</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5237836866474627</v>
+        <v>0.3330207213635371</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.2619781114582213</v>
+        <v>0.494937866155128</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4761282613146112</v>
+        <v>0.3687194929934863</v>
       </c>
     </row>
     <row r="100">
@@ -2425,19 +2425,19 @@
         <v>220</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6843289798283211</v>
+        <v>-0.2317255530807368</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3461648147358546</v>
+        <v>-0.006210973462273329</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2890986442081784</v>
+        <v>0.04451709066387602</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2782983452132388</v>
+        <v>-0.1695710480964931</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2542783520199893</v>
+        <v>0.8547814172221445</v>
       </c>
     </row>
     <row r="101">
@@ -2445,19 +2445,19 @@
         <v>221</v>
       </c>
       <c r="B101" t="n">
-        <v>0.7027004062370533</v>
+        <v>-0.104196271964229</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1276781384039102</v>
+        <v>0.08548376082841064</v>
       </c>
       <c r="D101" t="n">
-        <v>0.471383554856628</v>
+        <v>0.4588902988844104</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6088809039792447</v>
+        <v>-0.2064266140943579</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1466536857543336</v>
+        <v>0.9189759765934333</v>
       </c>
     </row>
     <row r="102">
@@ -2465,19 +2465,19 @@
         <v>222</v>
       </c>
       <c r="B102" t="n">
-        <v>0.60552707629237</v>
+        <v>-0.6788660808521507</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.6543018498106271</v>
+        <v>-0.04758425335077269</v>
       </c>
       <c r="D102" t="n">
-        <v>0.2117231212789259</v>
+        <v>0.297824176257606</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5460823294582245</v>
+        <v>-0.181240847770451</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.05718067408013059</v>
+        <v>0.7453532616268819</v>
       </c>
     </row>
     <row r="103">
@@ -2485,19 +2485,19 @@
         <v>223</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5308073575524298</v>
+        <v>-0.5499096606599755</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4678229231697385</v>
+        <v>-0.3530168239954236</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3351594952299226</v>
+        <v>0.4982032038971554</v>
       </c>
       <c r="E103" t="n">
-        <v>0.328586237501676</v>
+        <v>0.1761241045332091</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.5185795736946146</v>
+        <v>0.5339561933823475</v>
       </c>
     </row>
     <row r="104">
@@ -2505,19 +2505,19 @@
         <v>224</v>
       </c>
       <c r="B104" t="n">
-        <v>0.546304329419584</v>
+        <v>-0.332204947976159</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.2992327349561746</v>
+        <v>-0.6611761016852441</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4362337805770793</v>
+        <v>0.4030879054340132</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.1032562639558265</v>
+        <v>0.5209598258180143</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.7588708749790104</v>
+        <v>0.4350079704725061</v>
       </c>
     </row>
     <row r="105">
@@ -2525,19 +2525,19 @@
         <v>225</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5203963601656054</v>
+        <v>-0.525958655308115</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.5479712621278398</v>
+        <v>-0.2291333691628427</v>
       </c>
       <c r="D105" t="n">
-        <v>0.2078247001685226</v>
+        <v>0.1490243047429438</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1888107552044613</v>
+        <v>0.05440948878673708</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.1806515500938037</v>
+        <v>0.5734123224021634</v>
       </c>
     </row>
     <row r="106">
@@ -2545,19 +2545,19 @@
         <v>226</v>
       </c>
       <c r="B106" t="n">
-        <v>0.07925721636749258</v>
+        <v>-0.3501671574588078</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.3415595924812645</v>
+        <v>0.09379765090463608</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.03967793033596582</v>
+        <v>0.00488844629993287</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2107550047350954</v>
+        <v>-0.1259936446063332</v>
       </c>
       <c r="F106" t="n">
-        <v>0.06883465725449603</v>
+        <v>0.1550702944234836</v>
       </c>
     </row>
     <row r="107">
@@ -2565,19 +2565,19 @@
         <v>227</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.2414175903486091</v>
+        <v>0.06569423249408132</v>
       </c>
       <c r="C107" t="n">
-        <v>0.08180197891661795</v>
+        <v>-0.1453964491566406</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0217304882627392</v>
+        <v>-0.02301316778296023</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.2924035569869016</v>
+        <v>0.3178818971728756</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.2809726755518854</v>
+        <v>-0.3179273643553845</v>
       </c>
     </row>
     <row r="108">
@@ -2585,19 +2585,19 @@
         <v>228</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1690232778620526</v>
+        <v>0.08255451854135315</v>
       </c>
       <c r="C108" t="n">
-        <v>0.04856791955167836</v>
+        <v>-0.06788386131000383</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02676468385211509</v>
+        <v>-0.119617712899187</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.2772078047457832</v>
+        <v>0.2367897860887159</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.09992639445259563</v>
+        <v>-0.1884264831152806</v>
       </c>
     </row>
     <row r="109">
@@ -2605,19 +2605,19 @@
         <v>229</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.08341254573008178</v>
+        <v>0.2194009026655969</v>
       </c>
       <c r="C109" t="n">
-        <v>0.189448277745799</v>
+        <v>0.08954779414582371</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1269955362366703</v>
+        <v>0.01890306312679054</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.05610340917223478</v>
+        <v>0.09196089892976519</v>
       </c>
       <c r="F109" t="n">
-        <v>0.05818002898673417</v>
+        <v>-0.02120213397983189</v>
       </c>
     </row>
     <row r="110">
@@ -2625,19 +2625,19 @@
         <v>230</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.303791246868278</v>
+        <v>0.1065110992895904</v>
       </c>
       <c r="C110" t="n">
-        <v>0.09436257972299843</v>
+        <v>0.4175275170765803</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1859756387227756</v>
+        <v>-0.1740058952508715</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1297160047784968</v>
+        <v>-0.2731932478520704</v>
       </c>
       <c r="F110" t="n">
-        <v>0.4174662555980754</v>
+        <v>-0.187878541538522</v>
       </c>
     </row>
     <row r="111">
@@ -2645,19 +2645,19 @@
         <v>231</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.3482539176623094</v>
+        <v>-0.06575856402746436</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.03866189435698662</v>
+        <v>0.2408596681018596</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.2046816923020945</v>
+        <v>-0.1339797394023173</v>
       </c>
       <c r="E111" t="n">
-        <v>0.03040911844498878</v>
+        <v>-0.1074789927157523</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1465499558760617</v>
+        <v>-0.3068140036968613</v>
       </c>
     </row>
     <row r="112">
@@ -2665,19 +2665,19 @@
         <v>232</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.4814850478799667</v>
+        <v>0.05089375894820532</v>
       </c>
       <c r="C112" t="n">
-        <v>0.07003342276882345</v>
+        <v>0.06103887220482025</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.2427106204919921</v>
+        <v>-0.21978923424142</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.2688617787433341</v>
+        <v>0.1085534165441834</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.04426552337352476</v>
+        <v>-0.5481252549151209</v>
       </c>
     </row>
     <row r="113">
@@ -2685,19 +2685,19 @@
         <v>233</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.3707214629828535</v>
+        <v>-0.001405966898053528</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04767582111538646</v>
+        <v>-0.08214145476363433</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1157167851004473</v>
+        <v>-0.06314923796208433</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.2546507896709335</v>
+        <v>0.2330385171978379</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.2531834313023771</v>
+        <v>-0.4629932535855719</v>
       </c>
     </row>
     <row r="114">
@@ -2705,19 +2705,19 @@
         <v>234</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.2694738814278852</v>
+        <v>0.6974646285579694</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6812409414859413</v>
+        <v>-0.1816956433693282</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1801548091028121</v>
+        <v>0.05628016429851469</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.4664418079969621</v>
+        <v>0.4270811324550055</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.2503383008741861</v>
+        <v>-0.3896757860043639</v>
       </c>
     </row>
     <row r="115">
@@ -2725,19 +2725,19 @@
         <v>235</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.09921438356120189</v>
+        <v>0.02824427609224144</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.06695881743981831</v>
+        <v>0.3534375033995865</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.1970878918979957</v>
+        <v>-0.3636685257250055</v>
       </c>
       <c r="E115" t="n">
-        <v>0.03402633544995772</v>
+        <v>-0.313103459000382</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5507343228405056</v>
+        <v>0.02487135589052781</v>
       </c>
     </row>
     <row r="116">
@@ -2745,19 +2745,19 @@
         <v>236</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.1846141657162791</v>
+        <v>0.7954024455822186</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7808928177409658</v>
+        <v>0.1689051677929637</v>
       </c>
       <c r="D116" t="n">
-        <v>0.2510545715966662</v>
+        <v>0.1929282845280898</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.06162791744090101</v>
+        <v>0.1019874523196415</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1092795497145971</v>
+        <v>-0.1414911870630944</v>
       </c>
     </row>
     <row r="117">
@@ -2765,19 +2765,19 @@
         <v>237</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.05236811533349148</v>
+        <v>0.4154752145634454</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3288344045928579</v>
+        <v>0.1534673164568282</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09887735543535719</v>
+        <v>-0.1168696756640896</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.1272303900357406</v>
+        <v>0.003984653459876701</v>
       </c>
       <c r="F117" t="n">
-        <v>0.2652603795091942</v>
+        <v>0.0153428880645552</v>
       </c>
     </row>
     <row r="118">
@@ -2785,19 +2785,19 @@
         <v>238</v>
       </c>
       <c r="B118" t="n">
-        <v>0.138464407483374</v>
+        <v>0.4577556724570929</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4205346836671215</v>
+        <v>0.281256535452685</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2727239341908732</v>
+        <v>0.19671973115689</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2596252199656525</v>
+        <v>-0.1586714938009372</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3345239638136437</v>
+        <v>0.3060108673381157</v>
       </c>
     </row>
     <row r="119">
@@ -2805,19 +2805,19 @@
         <v>239</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2649432552473786</v>
+        <v>0.3988179091101071</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3658664914742414</v>
+        <v>0.0547028171710882</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3727330431964679</v>
+        <v>0.2842251499214786</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1633447073700607</v>
+        <v>0.01951509444698494</v>
       </c>
       <c r="F119" t="n">
-        <v>0.08628010116152192</v>
+        <v>0.3678572105477345</v>
       </c>
     </row>
     <row r="120">
@@ -2825,19 +2825,19 @@
         <v>240</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3050062452023777</v>
+        <v>-0.2787457042930027</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.2870642469456847</v>
+        <v>0.2861988263343437</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0501536814264885</v>
+        <v>0.1206508555412166</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5312195789750809</v>
+        <v>-0.399219203777045</v>
       </c>
       <c r="F120" t="n">
-        <v>0.3481821574701764</v>
+        <v>0.4976373308889518</v>
       </c>
     </row>
     <row r="121">
@@ -2845,19 +2845,19 @@
         <v>241</v>
       </c>
       <c r="B121" t="n">
-        <v>0.08421268048640583</v>
+        <v>0.1506264362899599</v>
       </c>
       <c r="C121" t="n">
-        <v>0.2080902854299733</v>
+        <v>-0.124436063057181</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2485581467044392</v>
+        <v>0.3406051314864982</v>
       </c>
       <c r="E121" t="n">
-        <v>0.07499537286800369</v>
+        <v>0.1774025473581138</v>
       </c>
       <c r="F121" t="n">
-        <v>-0.2701065962177433</v>
+        <v>0.0717745616866967</v>
       </c>
     </row>
     <row r="122">
@@ -2865,19 +2865,19 @@
         <v>242</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3613585018554112</v>
+        <v>0.5563035518407397</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5186076996433299</v>
+        <v>-0.6128678785871009</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6505222720936884</v>
+        <v>0.3960466519236781</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.4394159322066168</v>
+        <v>0.7315905159551274</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.6511640470226898</v>
+        <v>0.2270511711364464</v>
       </c>
     </row>
     <row r="123">
@@ -2885,19 +2885,19 @@
         <v>243</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5935807717004933</v>
+        <v>0.2563633488913634</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1581644437356035</v>
+        <v>0.08145605442375511</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4765696195754752</v>
+        <v>0.2467340488868702</v>
       </c>
       <c r="E123" t="n">
-        <v>0.2958229394848633</v>
+        <v>-0.1008383833483904</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2675057054137204</v>
+        <v>0.7875898652196378</v>
       </c>
     </row>
     <row r="124">
@@ -2905,19 +2905,19 @@
         <v>244</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5523874263231127</v>
+        <v>0.07214659915086122</v>
       </c>
       <c r="C124" t="n">
-        <v>0.05540432775024769</v>
+        <v>0.2878116469739656</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4322445062683197</v>
+        <v>0.4407377418737558</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6774651448187723</v>
+        <v>-0.3214136628866769</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3367875625424901</v>
+        <v>0.8244184944201763</v>
       </c>
     </row>
     <row r="125">
@@ -2925,19 +2925,19 @@
         <v>245</v>
       </c>
       <c r="B125" t="n">
-        <v>0.2170571679074272</v>
+        <v>0.5334749465559533</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5215437360450245</v>
+        <v>-0.0659686289251431</v>
       </c>
       <c r="D125" t="n">
-        <v>0.4664636629109286</v>
+        <v>0.3866512112334964</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0516097885702257</v>
+        <v>0.2030539935551398</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.1110371288463448</v>
+        <v>0.2634196518693139</v>
       </c>
     </row>
     <row r="126">
@@ -2945,19 +2945,19 @@
         <v>246</v>
       </c>
       <c r="B126" t="n">
-        <v>0.3099560269676703</v>
+        <v>0.4453347915211038</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3808560796481092</v>
+        <v>-0.06590608864394107</v>
       </c>
       <c r="D126" t="n">
-        <v>0.453022112850953</v>
+        <v>0.2538016073447275</v>
       </c>
       <c r="E126" t="n">
-        <v>0.003275050499055439</v>
+        <v>0.1751492364225058</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.006259666461699564</v>
+        <v>0.3889085134923488</v>
       </c>
     </row>
     <row r="127">
@@ -2965,19 +2965,19 @@
         <v>247</v>
       </c>
       <c r="B127" t="n">
-        <v>0.15264765554791</v>
+        <v>0.09645221551268897</v>
       </c>
       <c r="C127" t="n">
-        <v>0.05291053648494673</v>
+        <v>0.4914492758725554</v>
       </c>
       <c r="D127" t="n">
-        <v>0.05451030773007547</v>
+        <v>0.0307004828484568</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4825388358599867</v>
+        <v>-0.4737690824399932</v>
       </c>
       <c r="F127" t="n">
-        <v>0.611741383477082</v>
+        <v>0.3983730110956323</v>
       </c>
     </row>
     <row r="128">
@@ -2985,19 +2985,19 @@
         <v>248</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.07085840551475805</v>
+        <v>0.4324934375944573</v>
       </c>
       <c r="C128" t="n">
-        <v>0.4541255471149063</v>
+        <v>0.1380086606457502</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1936406320917342</v>
+        <v>0.2380104489584908</v>
       </c>
       <c r="E128" t="n">
-        <v>0.1057452514457758</v>
+        <v>0.01611491519418936</v>
       </c>
       <c r="F128" t="n">
-        <v>0.04387022892152307</v>
+        <v>-0.01675504598680305</v>
       </c>
     </row>
     <row r="129">
@@ -3005,19 +3005,19 @@
         <v>249</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.1337564348635518</v>
+        <v>0.1667021215091324</v>
       </c>
       <c r="C129" t="n">
-        <v>0.1290830398593577</v>
+        <v>0.119764243068019</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.03887051657258937</v>
+        <v>-0.1358803786570176</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.09483311465873703</v>
+        <v>-0.01974769136081079</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1590986528460407</v>
+        <v>-0.1073787096476974</v>
       </c>
     </row>
     <row r="130">
@@ -3025,19 +3025,19 @@
         <v>250</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0008665301229529642</v>
+        <v>0.4292358730841775</v>
       </c>
       <c r="C130" t="n">
-        <v>0.4145612997863656</v>
+        <v>-0.06096199205554281</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2805676214244683</v>
+        <v>0.1808812811910284</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.1196901152390527</v>
+        <v>0.2373683244167059</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.1128454184743591</v>
+        <v>0.007234435705223034</v>
       </c>
     </row>
     <row r="131">
@@ -3045,19 +3045,19 @@
         <v>251</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1104880657993847</v>
+        <v>0.2026019970769831</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1430988434448254</v>
+        <v>0.0300886389746261</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2220031092780784</v>
+        <v>0.04867140623277547</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.02563243512384134</v>
+        <v>0.09472117814960658</v>
       </c>
       <c r="F131" t="n">
-        <v>0.07058037050904704</v>
+        <v>0.1885629218845364</v>
       </c>
     </row>
     <row r="132">
@@ -3065,19 +3065,19 @@
         <v>252</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.02401921307924312</v>
+        <v>0.3463643598523335</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3005833548165038</v>
+        <v>0.2685879340992585</v>
       </c>
       <c r="D132" t="n">
-        <v>0.162837249686008</v>
+        <v>0.04662693506900285</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1127407720617374</v>
+        <v>-0.08462631409088042</v>
       </c>
       <c r="F132" t="n">
-        <v>0.2883002909342745</v>
+        <v>0.1140059778454213</v>
       </c>
     </row>
     <row r="133">
@@ -3085,19 +3085,19 @@
         <v>253</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.2455923883439617</v>
+        <v>0.4573613354999138</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4006576986538859</v>
+        <v>0.2901037896174311</v>
       </c>
       <c r="D133" t="n">
-        <v>0.05454434736604431</v>
+        <v>-0.09852331424889706</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.07383370628064029</v>
+        <v>-0.02243660003380721</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3118915656347478</v>
+        <v>-0.1446318911397324</v>
       </c>
     </row>
     <row r="134">
@@ -3105,19 +3105,19 @@
         <v>254</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.4348222917845989</v>
+        <v>0.004658134433996835</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.03956663505107556</v>
+        <v>0.5529220071430385</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.3127109195918433</v>
+        <v>-0.3592482815687764</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1023107604222938</v>
+        <v>-0.3462083716746788</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5785990785593291</v>
+        <v>-0.2766378591577626</v>
       </c>
     </row>
     <row r="135">
@@ -3125,19 +3125,19 @@
         <v>255</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.5951038798025734</v>
+        <v>0.6609150382948636</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6639933651181998</v>
+        <v>0.140915322816886</v>
       </c>
       <c r="D135" t="n">
-        <v>0.008718514579376476</v>
+        <v>-0.05405211273590312</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.3549233697072412</v>
+        <v>0.2634642635942326</v>
       </c>
       <c r="F135" t="n">
-        <v>-0.0227747977523876</v>
+        <v>-0.6348204078209908</v>
       </c>
     </row>
     <row r="136">
@@ -3145,19 +3145,19 @@
         <v>256</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.3097060543736872</v>
+        <v>0.442672129892848</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3589446408054378</v>
+        <v>0.1219387249340478</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.01154087667238978</v>
+        <v>-0.2687246182939771</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.3621443144622133</v>
+        <v>0.1454887794225047</v>
       </c>
       <c r="F136" t="n">
-        <v>0.19263867809178</v>
+        <v>-0.2922873321196551</v>
       </c>
     </row>
     <row r="137">
@@ -3165,19 +3165,19 @@
         <v>257</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.1730932369251371</v>
+        <v>0.1948920594075268</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1286716360454192</v>
+        <v>0.5305035489440659</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.09210926873801234</v>
+        <v>-0.1895382908168623</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2164087689535112</v>
+        <v>-0.363153572802858</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6271759084922373</v>
+        <v>0.03249377201608288</v>
       </c>
     </row>
     <row r="138">
@@ -3185,19 +3185,19 @@
         <v>258</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.3515954940687608</v>
+        <v>-0.3963047847637175</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.3869445563776038</v>
+        <v>0.5769719103955802</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.4129672516598099</v>
+        <v>-0.295045219834694</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3506052545654357</v>
+        <v>-0.5031450869715131</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5420851528729698</v>
+        <v>-0.1779237376506521</v>
       </c>
     </row>
     <row r="139">
@@ -3205,19 +3205,19 @@
         <v>259</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.5847724123661461</v>
+        <v>0.657594166026894</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7129972988211305</v>
+        <v>-0.2333527437968629</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1103850367164018</v>
+        <v>0.09960054727090242</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.591974549033521</v>
+        <v>0.6170270280068009</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.5128410095719378</v>
+        <v>-0.7726455235297209</v>
       </c>
     </row>
     <row r="140">
@@ -3225,19 +3225,19 @@
         <v>260</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.5549014436375983</v>
+        <v>0.1064347079019818</v>
       </c>
       <c r="C140" t="n">
-        <v>0.01148404346249389</v>
+        <v>0.2815228000659612</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.4146088677512739</v>
+        <v>-0.640858887521068</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.4043600774463539</v>
+        <v>-0.0769622429871495</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4061708888689222</v>
+        <v>-0.5476846484003525</v>
       </c>
     </row>
     <row r="141">
@@ -3245,19 +3245,19 @@
         <v>261</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.7278009398621128</v>
+        <v>0.4204653363298716</v>
       </c>
       <c r="C141" t="n">
-        <v>0.3940699320458199</v>
+        <v>0.632424196118517</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.3672985546629686</v>
+        <v>-0.3895686055923413</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.05268499894620692</v>
+        <v>-0.3064257885215433</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6151481289578823</v>
+        <v>-0.6197404308480816</v>
       </c>
     </row>
     <row r="142">
@@ -3265,19 +3265,19 @@
         <v>262</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.730395114336753</v>
+        <v>0.7955838786253961</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7468686909678893</v>
+        <v>0.1543694706169613</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.118344633375111</v>
+        <v>-0.3171487833977514</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.6038510916199684</v>
+        <v>0.2761253046445544</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1018378351993427</v>
+        <v>-0.8039740734006148</v>
       </c>
     </row>
     <row r="143">
@@ -3285,19 +3285,19 @@
         <v>263</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.4731281597078353</v>
+        <v>0.412298077235201</v>
       </c>
       <c r="C143" t="n">
-        <v>0.3136324924857578</v>
+        <v>0.4559304029251812</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.2081603074492453</v>
+        <v>-0.4464815598126096</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.2061728365307369</v>
+        <v>-0.1571090656064704</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5741854477559302</v>
+        <v>-0.3610078820633209</v>
       </c>
     </row>
     <row r="144">
@@ -3305,19 +3305,19 @@
         <v>264</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.09574160951418166</v>
+        <v>1.062300352442075</v>
       </c>
       <c r="C144" t="n">
-        <v>0.98324551564854</v>
+        <v>0.09182532087449063</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4761745574662574</v>
+        <v>0.201184857524127</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.2359964628072424</v>
+        <v>0.3026048273986633</v>
       </c>
       <c r="F144" t="n">
-        <v>0.09100755533943097</v>
+        <v>-0.02390895542053921</v>
       </c>
     </row>
     <row r="145">
@@ -3325,19 +3325,19 @@
         <v>265</v>
       </c>
       <c r="B145" t="n">
-        <v>0.2222647753700902</v>
+        <v>0.4017577841495673</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2616737317273278</v>
+        <v>0.3667129146430338</v>
       </c>
       <c r="D145" t="n">
-        <v>0.2725368411157191</v>
+        <v>-0.05374143483579242</v>
       </c>
       <c r="E145" t="n">
-        <v>0.1696255158627985</v>
+        <v>-0.2007609954530978</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5827349981340587</v>
+        <v>0.4685335834783765</v>
       </c>
     </row>
     <row r="146">
@@ -3345,19 +3345,19 @@
         <v>266</v>
       </c>
       <c r="B146" t="n">
-        <v>0.2296017739845101</v>
+        <v>1.033673164678347</v>
       </c>
       <c r="C146" t="n">
-        <v>0.9515678101586414</v>
+        <v>0.3960986315672747</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5852100897467966</v>
+        <v>0.399770697610458</v>
       </c>
       <c r="E146" t="n">
-        <v>0.312016172096037</v>
+        <v>-0.123149245089624</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4822465926648891</v>
+        <v>0.4851387642213956</v>
       </c>
     </row>
     <row r="147">
@@ -3365,19 +3365,19 @@
         <v>267</v>
       </c>
       <c r="B147" t="n">
-        <v>0.08381611854227618</v>
+        <v>0.01925075807304861</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.1206185155598723</v>
+        <v>0.7315731283609029</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1003968606142904</v>
+        <v>-0.3241799829201226</v>
       </c>
       <c r="E147" t="n">
-        <v>0.4385471732105292</v>
+        <v>-0.6568789215813392</v>
       </c>
       <c r="F147" t="n">
-        <v>1.019548012820802</v>
+        <v>0.4333116045274416</v>
       </c>
     </row>
     <row r="148">
@@ -3385,19 +3385,19 @@
         <v>268</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.3255568663653262</v>
+        <v>1.027322574416794</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9755177217334766</v>
+        <v>0.3612778714870791</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2721497719959085</v>
+        <v>0.1181348999499915</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.08711884647815622</v>
+        <v>0.06872860596767011</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3184466576130911</v>
+        <v>-0.209369599997376</v>
       </c>
     </row>
     <row r="149">
@@ -3405,19 +3405,19 @@
         <v>269</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.3244629323438955</v>
+        <v>0.6454298184360366</v>
       </c>
       <c r="C149" t="n">
-        <v>0.506286521460301</v>
+        <v>0.3593918662292658</v>
       </c>
       <c r="D149" t="n">
-        <v>0.02317630837216039</v>
+        <v>-0.3420578743903631</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.2880139541717213</v>
+        <v>-0.001861196837621747</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5126926045454314</v>
+        <v>-0.1972093512832445</v>
       </c>
     </row>
     <row r="150">
@@ -3425,19 +3425,19 @@
         <v>270</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.4830482084421885</v>
+        <v>0.8107289022017483</v>
       </c>
       <c r="C150" t="n">
-        <v>0.705896587383308</v>
+        <v>0.9020473070575967</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1278761572871392</v>
+        <v>-0.3020277377203315</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1867047494235995</v>
+        <v>-0.5272266603151083</v>
       </c>
       <c r="F150" t="n">
-        <v>1.047845521490723</v>
+        <v>-0.1986573267785526</v>
       </c>
     </row>
     <row r="151">
@@ -3445,19 +3445,19 @@
         <v>271</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.7073310910976898</v>
+        <v>1.220590778838142</v>
       </c>
       <c r="C151" t="n">
-        <v>1.129461934562722</v>
+        <v>0.6599460353639806</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.07039791281072248</v>
+        <v>-0.2736518421279523</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.2229760452056793</v>
+        <v>-0.1660852719697693</v>
       </c>
       <c r="F151" t="n">
-        <v>0.727898184015849</v>
+        <v>-0.5860701816071525</v>
       </c>
     </row>
     <row r="152">
@@ -3465,19 +3465,19 @@
         <v>272</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.5414377780261325</v>
+        <v>1.08782110112945</v>
       </c>
       <c r="C152" t="n">
-        <v>0.9441385073434512</v>
+        <v>0.6544969414193921</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.07330839086891862</v>
+        <v>-0.3960428956086424</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.2245566876164314</v>
+        <v>-0.2321319108039818</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8484480166088467</v>
+        <v>-0.381281067696086</v>
       </c>
     </row>
     <row r="153">
@@ -3485,19 +3485,19 @@
         <v>273</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.3950152972699559</v>
+        <v>1.081056853890774</v>
       </c>
       <c r="C153" t="n">
-        <v>0.9576856673059446</v>
+        <v>0.7378382284262972</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01356822217979835</v>
+        <v>-0.2328389459444137</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0263821667440441</v>
+        <v>-0.363599264647505</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9291284830980875</v>
+        <v>-0.1682194607169235</v>
       </c>
     </row>
     <row r="154">
@@ -3505,19 +3505,19 @@
         <v>274</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.2714691069244772</v>
+        <v>0.8147533573231592</v>
       </c>
       <c r="C154" t="n">
-        <v>0.7150283378783701</v>
+        <v>0.6566439461980038</v>
       </c>
       <c r="D154" t="n">
-        <v>0.03270723443863142</v>
+        <v>-0.14878359016776</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1295856949549869</v>
+        <v>-0.3570170688657423</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8004075803987719</v>
+        <v>-0.05146695757406231</v>
       </c>
     </row>
     <row r="155">
@@ -3525,19 +3525,19 @@
         <v>275</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.2677462484738752</v>
+        <v>0.6027654463599262</v>
       </c>
       <c r="C155" t="n">
-        <v>0.532230853036698</v>
+        <v>0.6622664637377218</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.09212474431921164</v>
+        <v>-0.1729619539587521</v>
       </c>
       <c r="E155" t="n">
-        <v>0.2171919818821949</v>
+        <v>-0.463657233960381</v>
       </c>
       <c r="F155" t="n">
-        <v>0.802445893203483</v>
+        <v>-0.06138355790598609</v>
       </c>
     </row>
     <row r="156">
@@ -3545,19 +3545,19 @@
         <v>276</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.3895988985307004</v>
+        <v>0.6965489016176257</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6431406618448355</v>
+        <v>0.4711757462438985</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.08993500672216523</v>
+        <v>-0.1802429973650158</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.03131453758430224</v>
+        <v>-0.2283588858952866</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5499072777233738</v>
+        <v>-0.291741551696365</v>
       </c>
     </row>
     <row r="157">
@@ -3565,19 +3565,19 @@
         <v>277</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.3843140656235498</v>
+        <v>0.4710127645708377</v>
       </c>
       <c r="C157" t="n">
-        <v>0.4015778649905229</v>
+        <v>0.5200880623069217</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.2457474426071502</v>
+        <v>-0.3442195960303263</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.009898479458636393</v>
+        <v>-0.3571352296573601</v>
       </c>
       <c r="F157" t="n">
-        <v>0.6667795563471355</v>
+        <v>-0.2767516157898072</v>
       </c>
     </row>
     <row r="158">
@@ -3585,19 +3585,19 @@
         <v>278</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.5786391411137011</v>
+        <v>0.3224566569603362</v>
       </c>
       <c r="C158" t="n">
-        <v>0.2896387067568134</v>
+        <v>0.5650511145419347</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.3760508120711279</v>
+        <v>-0.3870181935092554</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.01421058235368336</v>
+        <v>-0.3584321672220938</v>
       </c>
       <c r="F158" t="n">
-        <v>0.614833649074775</v>
+        <v>-0.4831629481185248</v>
       </c>
     </row>
     <row r="159">
@@ -3605,19 +3605,19 @@
         <v>279</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.607194565754161</v>
+        <v>0.8455246140982571</v>
       </c>
       <c r="C159" t="n">
-        <v>0.8500788637252213</v>
+        <v>0.1662830794758781</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.08265427763848841</v>
+        <v>-0.1176684306369721</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.3832917174787699</v>
+        <v>0.1412965360756595</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1021391060259908</v>
+        <v>-0.6833757326240228</v>
       </c>
     </row>
     <row r="160">
@@ -3625,19 +3625,19 @@
         <v>280</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.4889916900220251</v>
+        <v>0.3725590615593893</v>
       </c>
       <c r="C160" t="n">
-        <v>0.3226400766992754</v>
+        <v>0.4333668477788775</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.3422196574855629</v>
+        <v>-0.4054369142370226</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.1220229944173385</v>
+        <v>-0.2794608964074846</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5447043023951669</v>
+        <v>-0.4451433270773072</v>
       </c>
     </row>
     <row r="161">
@@ -3645,19 +3645,19 @@
         <v>281</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.4749320298957277</v>
+        <v>0.4079093303465527</v>
       </c>
       <c r="C161" t="n">
-        <v>0.3970658313768307</v>
+        <v>0.5174775937421811</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.3293756370735116</v>
+        <v>-0.2664338406738613</v>
       </c>
       <c r="E161" t="n">
-        <v>0.06817268247794074</v>
+        <v>-0.3972526463253144</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5725342507020926</v>
+        <v>-0.4118802848318707</v>
       </c>
     </row>
     <row r="162">
@@ -3665,19 +3665,19 @@
         <v>282</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.3767758797531412</v>
+        <v>0.6569414904994261</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6549440204872865</v>
+        <v>-0.02253390545771195</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.01066134547570259</v>
+        <v>-0.0530746196708252</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.3740761553726688</v>
+        <v>0.2084931739882502</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.05944763480231392</v>
+        <v>-0.4887700847242804</v>
       </c>
     </row>
     <row r="163">
@@ -3685,19 +3685,19 @@
         <v>283</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.01577498023070799</v>
+        <v>0.1957315444669599</v>
       </c>
       <c r="C163" t="n">
-        <v>0.1501233723443484</v>
+        <v>0.1503164558142562</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.06775488964280897</v>
+        <v>-0.1379043364923296</v>
       </c>
       <c r="E163" t="n">
-        <v>0.001865989772966217</v>
+        <v>-0.1672929834722442</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2815637280743301</v>
+        <v>0.01421037635972433</v>
       </c>
     </row>
     <row r="164">
@@ -3705,19 +3705,19 @@
         <v>284</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.1227578575402025</v>
+        <v>-0.2666994552132494</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.25473169256914</v>
+        <v>0.5046575358214215</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.3760370878287625</v>
+        <v>-0.2135389800566264</v>
       </c>
       <c r="E164" t="n">
-        <v>0.4285441382638189</v>
+        <v>-0.6208025914264492</v>
       </c>
       <c r="F164" t="n">
-        <v>0.5924649808440042</v>
+        <v>0.0184134574395766</v>
       </c>
     </row>
     <row r="165">
@@ -3725,19 +3725,19 @@
         <v>285</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.2705838632495944</v>
+        <v>0.314370905801884</v>
       </c>
       <c r="C165" t="n">
-        <v>0.3688535492106287</v>
+        <v>-0.2213796496695473</v>
       </c>
       <c r="D165" t="n">
-        <v>0.007504011258176127</v>
+        <v>0.07190347793506792</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.3300355144708449</v>
+        <v>0.3199082532164085</v>
       </c>
       <c r="F165" t="n">
-        <v>-0.353877843205493</v>
+        <v>-0.4343921415849462</v>
       </c>
     </row>
     <row r="166">
@@ -3745,19 +3745,19 @@
         <v>286</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.3367544108918077</v>
+        <v>-0.2032086836412013</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.2470847995117757</v>
+        <v>0.1296171219808452</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.4424731283948286</v>
+        <v>-0.5013104304372803</v>
       </c>
       <c r="E166" t="n">
-        <v>-0.2306728149479841</v>
+        <v>-0.1469046252641995</v>
       </c>
       <c r="F166" t="n">
-        <v>0.2378545974051993</v>
+        <v>-0.3838135085663787</v>
       </c>
     </row>
     <row r="167">
@@ -3765,19 +3765,19 @@
         <v>287</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.4413456051219859</v>
+        <v>-0.09760921406601795</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.05899198256108448</v>
+        <v>0.2680781177751408</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.3645464269220601</v>
+        <v>-0.2247807216085596</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0178664315008679</v>
+        <v>-0.200705217611145</v>
       </c>
       <c r="F167" t="n">
-        <v>0.1912366754510197</v>
+        <v>-0.4481180358227859</v>
       </c>
     </row>
     <row r="168">
@@ -3785,19 +3785,19 @@
         <v>288</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.5566596242311834</v>
+        <v>-0.09571531556148681</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.04699542624042479</v>
+        <v>-0.01991240657441003</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.3779135022409076</v>
+        <v>-0.2915637568268456</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.3418982696976527</v>
+        <v>0.1209688173854568</v>
       </c>
       <c r="F168" t="n">
-        <v>-0.1494118042869599</v>
+        <v>-0.6941606244992441</v>
       </c>
     </row>
     <row r="169">
@@ -3805,19 +3805,19 @@
         <v>289</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.5006955691797886</v>
+        <v>0.05761196096772132</v>
       </c>
       <c r="C169" t="n">
-        <v>0.1004972380531236</v>
+        <v>-0.09374019631358906</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.2579153383491418</v>
+        <v>-0.1961775149193039</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.3872728375086343</v>
+        <v>0.2221417909909094</v>
       </c>
       <c r="F169" t="n">
-        <v>-0.2247329075002355</v>
+        <v>-0.6510993795742979</v>
       </c>
     </row>
     <row r="170">
@@ -3825,19 +3825,19 @@
         <v>290</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.4265713570930851</v>
+        <v>-0.02389825793125183</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.006745411498881076</v>
+        <v>0.07454923861141491</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.3353748943193904</v>
+        <v>-0.2938505412274419</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.2319776223630913</v>
+        <v>-0.01451032545384627</v>
       </c>
       <c r="F170" t="n">
-        <v>0.04222089033111801</v>
+        <v>-0.504501458446736</v>
       </c>
     </row>
     <row r="171">
@@ -3845,19 +3845,19 @@
         <v>291</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.3176877949717061</v>
+        <v>0.09312310997970123</v>
       </c>
       <c r="C171" t="n">
-        <v>0.1105052977841532</v>
+        <v>-0.04774641958331474</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.1462360185999658</v>
+        <v>-0.1360972185319757</v>
       </c>
       <c r="E171" t="n">
-        <v>-0.2613450840061347</v>
+        <v>0.1453540193723372</v>
       </c>
       <c r="F171" t="n">
-        <v>-0.1161640774325824</v>
+        <v>-0.409026908664794</v>
       </c>
     </row>
     <row r="172">
@@ -3865,19 +3865,19 @@
         <v>292</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.1242651036467233</v>
+        <v>0.1265640335183045</v>
       </c>
       <c r="C172" t="n">
-        <v>0.1278215976026558</v>
+        <v>-0.0899713942768211</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.03122015167465124</v>
+        <v>-0.04929327169467935</v>
       </c>
       <c r="E172" t="n">
-        <v>-0.1925862279641416</v>
+        <v>0.1267953322632215</v>
       </c>
       <c r="F172" t="n">
-        <v>-0.1101654628659767</v>
+        <v>-0.1959896147155069</v>
       </c>
     </row>
     <row r="173">
@@ -3885,19 +3885,19 @@
         <v>293</v>
       </c>
       <c r="B173" t="n">
-        <v>0.1579465711344289</v>
+        <v>-0.2192321066864407</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.2001164785124742</v>
+        <v>-0.02714744161105075</v>
       </c>
       <c r="D173" t="n">
-        <v>0.02052262632011575</v>
+        <v>0.08234407176080241</v>
       </c>
       <c r="E173" t="n">
-        <v>0.1565524905468474</v>
+        <v>-0.06822852014958401</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.02994945453523398</v>
+        <v>0.1813674678949136</v>
       </c>
     </row>
     <row r="174">
@@ -3905,19 +3905,19 @@
         <v>294</v>
       </c>
       <c r="B174" t="n">
-        <v>0.09558021687452012</v>
+        <v>-0.03331347042251752</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.01290283484173934</v>
+        <v>-0.01552874169641407</v>
       </c>
       <c r="D174" t="n">
-        <v>0.004222207796296359</v>
+        <v>0.07993719451000612</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1085506164053009</v>
+        <v>-0.07397369765002108</v>
       </c>
       <c r="F174" t="n">
-        <v>-0.006170520465684585</v>
+        <v>0.08526890722570281</v>
       </c>
     </row>
     <row r="175">
@@ -3925,19 +3925,19 @@
         <v>295</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.0505304623156529</v>
+        <v>-0.4065571545937325</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.3780125475533538</v>
+        <v>0.07484207508209584</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.2600902965688008</v>
+        <v>-0.1433892219252212</v>
       </c>
       <c r="E175" t="n">
-        <v>0.1261390368640987</v>
+        <v>-0.2053787130137153</v>
       </c>
       <c r="F175" t="n">
-        <v>0.08208494420447726</v>
+        <v>-0.05212219104961104</v>
       </c>
     </row>
     <row r="176">
@@ -3945,19 +3945,19 @@
         <v>296</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.2143586598262776</v>
+        <v>0.3038218868733729</v>
       </c>
       <c r="C176" t="n">
-        <v>0.3554732108610819</v>
+        <v>-0.221185290672437</v>
       </c>
       <c r="D176" t="n">
-        <v>0.02823186545989145</v>
+        <v>0.1095922430692628</v>
       </c>
       <c r="E176" t="n">
-        <v>-0.2757022051029513</v>
+        <v>0.2902576976992316</v>
       </c>
       <c r="F176" t="n">
-        <v>-0.3491134637622827</v>
+        <v>-0.3719497717463972</v>
       </c>
     </row>
     <row r="177">
@@ -3965,19 +3965,19 @@
         <v>297</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.1160546069635877</v>
+        <v>-0.006549207247951479</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.02590417245435712</v>
+        <v>-0.0406953931110973</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.1727267039185474</v>
+        <v>-0.2117174242707664</v>
       </c>
       <c r="E177" t="n">
-        <v>-0.1892940656413904</v>
+        <v>-0.001098804237596124</v>
       </c>
       <c r="F177" t="n">
-        <v>0.02741092445010929</v>
+        <v>-0.1883638111707697</v>
       </c>
     </row>
     <row r="178">
@@ -3985,19 +3985,19 @@
         <v>298</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.3071938564174575</v>
+        <v>0.1760112160889386</v>
       </c>
       <c r="C178" t="n">
-        <v>0.171867266720548</v>
+        <v>0.308306686749383</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.285006059130582</v>
+        <v>-0.2237997361667925</v>
       </c>
       <c r="E178" t="n">
-        <v>0.02902103560309849</v>
+        <v>-0.2854336959578301</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3686047686465321</v>
+        <v>-0.2861406274681755</v>
       </c>
     </row>
     <row r="179">
@@ -4005,19 +4005,19 @@
         <v>299</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.472161541843283</v>
+        <v>0.4303301615093663</v>
       </c>
       <c r="C179" t="n">
-        <v>0.4155422786936965</v>
+        <v>0.1540656170063336</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.2685561763986717</v>
+        <v>-0.2928460175138879</v>
       </c>
       <c r="E179" t="n">
-        <v>-0.3039006158268476</v>
+        <v>-0.03546465526664178</v>
       </c>
       <c r="F179" t="n">
-        <v>0.1914411254409794</v>
+        <v>-0.5515306717450161</v>
       </c>
     </row>
     <row r="180">
@@ -4025,19 +4025,19 @@
         <v>300</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.5608695118117403</v>
+        <v>0.3102576601579191</v>
       </c>
       <c r="C180" t="n">
-        <v>0.2702535358576347</v>
+        <v>0.3910476781456773</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.4663277752251251</v>
+        <v>-0.4917940172783363</v>
       </c>
       <c r="E180" t="n">
-        <v>-0.1923890375449519</v>
+        <v>-0.2961584684220821</v>
       </c>
       <c r="F180" t="n">
-        <v>0.5078966496766585</v>
+        <v>-0.5735760288785205</v>
       </c>
     </row>
     <row r="181">
@@ -4045,19 +4045,19 @@
         <v>301</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.3876301501833642</v>
+        <v>0.2284737542987677</v>
       </c>
       <c r="C181" t="n">
-        <v>0.2131071695378043</v>
+        <v>0.293036340160826</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3211851706718327</v>
+        <v>-0.2966393638094796</v>
       </c>
       <c r="E181" t="n">
-        <v>-0.08090045599491366</v>
+        <v>-0.2372696761567647</v>
       </c>
       <c r="F181" t="n">
-        <v>0.3537376507391423</v>
+        <v>-0.3934639744297566</v>
       </c>
     </row>
     <row r="182">
@@ -4065,19 +4065,19 @@
         <v>302</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.09457717987753053</v>
+        <v>-1.931804479523474</v>
       </c>
       <c r="C182" t="n">
-        <v>-1.514081905946256</v>
+        <v>1.092925663736535</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.421085101541862</v>
+        <v>0.135183014852912</v>
       </c>
       <c r="E182" t="n">
-        <v>2.097792617128448</v>
+        <v>-2.142333925648439</v>
       </c>
       <c r="F182" t="n">
-        <v>0.8938484413708789</v>
+        <v>0.06778933940949909</v>
       </c>
     </row>
     <row r="183">
@@ -4085,19 +4085,19 @@
         <v>303</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.3876175643523396</v>
+        <v>-3.672432958378955</v>
       </c>
       <c r="C183" t="n">
-        <v>-1.291388765599106</v>
+        <v>2.635571211407173</v>
       </c>
       <c r="D183" t="n">
-        <v>-3.780367597953801</v>
+        <v>3.922997195896341</v>
       </c>
       <c r="E183" t="n">
-        <v>8.083895811384416</v>
+        <v>-6.742159201755072</v>
       </c>
       <c r="F183" t="n">
-        <v>0.6290772808605737</v>
+        <v>-0.7455120093900738</v>
       </c>
     </row>
     <row r="184">
@@ -4105,19 +4105,19 @@
         <v>304</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.4813165279888723</v>
+        <v>1.847161459377537</v>
       </c>
       <c r="C184" t="n">
-        <v>5.099340017154387</v>
+        <v>-3.1050380637738</v>
       </c>
       <c r="D184" t="n">
-        <v>-2.924316432376505</v>
+        <v>6.488753225504913</v>
       </c>
       <c r="E184" t="n">
-        <v>3.840579739082636</v>
+        <v>-2.745098872104065</v>
       </c>
       <c r="F184" t="n">
-        <v>-5.600223098948084</v>
+        <v>-4.267076437252437</v>
       </c>
     </row>
     <row r="185">
@@ -4125,19 +4125,19 @@
         <v>305</v>
       </c>
       <c r="B185" t="n">
-        <v>3.96665708296216</v>
+        <v>1.863149445229788</v>
       </c>
       <c r="C185" t="n">
-        <v>2.791682021437038</v>
+        <v>-6.985968547297992</v>
       </c>
       <c r="D185" t="n">
-        <v>-3.555434112966445</v>
+        <v>0.133806304643431</v>
       </c>
       <c r="E185" t="n">
-        <v>-2.397550873501422</v>
+        <v>-1.581018635343712</v>
       </c>
       <c r="F185" t="n">
-        <v>-3.700640576171257</v>
+        <v>-0.907269972027845</v>
       </c>
     </row>
     <row r="186">
@@ -4145,19 +4145,19 @@
         <v>306</v>
       </c>
       <c r="B186" t="n">
-        <v>5.251113671624668</v>
+        <v>-0.4816192536325253</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.101029476014638</v>
+        <v>-5.034279489365939</v>
       </c>
       <c r="D186" t="n">
-        <v>-3.590683194161985</v>
+        <v>-3.721794656960341</v>
       </c>
       <c r="E186" t="n">
-        <v>-2.937665908529119</v>
+        <v>-2.54909382118999</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4737623994838609</v>
+        <v>2.145911216578457</v>
       </c>
     </row>
     <row r="187">
@@ -4165,19 +4165,19 @@
         <v>307</v>
       </c>
       <c r="B187" t="n">
-        <v>4.099756629859456</v>
+        <v>-2.136633909399192</v>
       </c>
       <c r="C187" t="n">
-        <v>-2.523863082758746</v>
+        <v>-2.274626074836093</v>
       </c>
       <c r="D187" t="n">
-        <v>-2.719765131391873</v>
+        <v>-2.463842715999087</v>
       </c>
       <c r="E187" t="n">
-        <v>-0.1996219989214475</v>
+        <v>-3.11842685533353</v>
       </c>
       <c r="F187" t="n">
-        <v>1.4349128231052</v>
+        <v>2.665606445247489</v>
       </c>
     </row>
     <row r="188">
@@ -4185,19 +4185,19 @@
         <v>308</v>
       </c>
       <c r="B188" t="n">
-        <v>1.982885877847421</v>
+        <v>-0.5549277264029285</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.0398479298799746</v>
+        <v>-1.637490634115741</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.435103983895827</v>
+        <v>0.6221829656537112</v>
       </c>
       <c r="E188" t="n">
-        <v>0.9800418642290156</v>
+        <v>-1.867295273982356</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.6188050388283026</v>
+        <v>0.6894267825911575</v>
       </c>
     </row>
     <row r="189">
@@ -4205,19 +4205,19 @@
         <v>309</v>
       </c>
       <c r="B189" t="n">
-        <v>1.746068245498832</v>
+        <v>0.3039257857348348</v>
       </c>
       <c r="C189" t="n">
-        <v>0.8173899922952648</v>
+        <v>-1.37571983533547</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.596719554010339</v>
+        <v>0.5653058844527847</v>
       </c>
       <c r="E189" t="n">
-        <v>0.9565599461263277</v>
+        <v>-2.18216730690608</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.2040296824182933</v>
+        <v>0.3883750017601317</v>
       </c>
     </row>
     <row r="190">
@@ -4225,19 +4225,19 @@
         <v>310</v>
       </c>
       <c r="B190" t="n">
-        <v>2.287688740346232</v>
+        <v>0.5171057951247264</v>
       </c>
       <c r="C190" t="n">
-        <v>0.8777448393765411</v>
+        <v>-1.166756308929175</v>
       </c>
       <c r="D190" t="n">
-        <v>-1.727806331026663</v>
+        <v>0.2218353518743071</v>
       </c>
       <c r="E190" t="n">
-        <v>1.148818178915878</v>
+        <v>-2.821267325479226</v>
       </c>
       <c r="F190" t="n">
-        <v>0.6074729685991316</v>
+        <v>1.018249784270009</v>
       </c>
     </row>
     <row r="191">
@@ -4245,19 +4245,19 @@
         <v>311</v>
       </c>
       <c r="B191" t="n">
-        <v>2.450626108602437</v>
+        <v>0.6448141109053478</v>
       </c>
       <c r="C191" t="n">
-        <v>0.9113631266951897</v>
+        <v>-1.503307823266155</v>
       </c>
       <c r="D191" t="n">
-        <v>-1.420567879281464</v>
+        <v>0.1782217141301156</v>
       </c>
       <c r="E191" t="n">
-        <v>0.7227553221185434</v>
+        <v>-2.336541066730644</v>
       </c>
       <c r="F191" t="n">
-        <v>0.3263714260394414</v>
+        <v>1.144297376879445</v>
       </c>
     </row>
     <row r="192">
@@ -4265,19 +4265,19 @@
         <v>312</v>
       </c>
       <c r="B192" t="n">
-        <v>2.565558343248106</v>
+        <v>-0.563130214213163</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.2321074242321658</v>
+        <v>-0.7993711053494864</v>
       </c>
       <c r="D192" t="n">
-        <v>-1.970095768656101</v>
+        <v>0.008279054515305969</v>
       </c>
       <c r="E192" t="n">
-        <v>1.744592646296868</v>
+        <v>-3.364291164134424</v>
       </c>
       <c r="F192" t="n">
-        <v>1.058747770377034</v>
+        <v>1.553329070894635</v>
       </c>
     </row>
     <row r="193">
@@ -4285,19 +4285,19 @@
         <v>313</v>
       </c>
       <c r="B193" t="n">
-        <v>1.737839024544437</v>
+        <v>0.789216679771285</v>
       </c>
       <c r="C193" t="n">
-        <v>1.45331829221713</v>
+        <v>-1.141777279934576</v>
       </c>
       <c r="D193" t="n">
-        <v>-1.701374680062278</v>
+        <v>0.9578763913221204</v>
       </c>
       <c r="E193" t="n">
-        <v>1.457759717829898</v>
+        <v>-2.681145584653097</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.003315468518954314</v>
+        <v>0.3355497686728318</v>
       </c>
     </row>
     <row r="194">
@@ -4305,19 +4305,19 @@
         <v>314</v>
       </c>
       <c r="B194" t="n">
-        <v>1.844853602678161</v>
+        <v>3.363547514466092</v>
       </c>
       <c r="C194" t="n">
-        <v>3.345889576553175</v>
+        <v>-2.684163640403335</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.5454966410383187</v>
+        <v>-0.09457853152645215</v>
       </c>
       <c r="E194" t="n">
-        <v>-1.798259447876226</v>
+        <v>-0.2738343592757248</v>
       </c>
       <c r="F194" t="n">
-        <v>-0.6889364340033426</v>
+        <v>-0.0112491396052192</v>
       </c>
     </row>
     <row r="195">
@@ -4325,19 +4325,19 @@
         <v>315</v>
       </c>
       <c r="B195" t="n">
-        <v>2.513176589382281</v>
+        <v>4.657346463894091</v>
       </c>
       <c r="C195" t="n">
-        <v>2.499577384351597</v>
+        <v>-3.369837453464378</v>
       </c>
       <c r="D195" t="n">
-        <v>1.427053649931855</v>
+        <v>-4.44035556389553</v>
       </c>
       <c r="E195" t="n">
-        <v>-7.054831315158498</v>
+        <v>3.177774198664773</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9774316236556196</v>
+        <v>1.573521175615227</v>
       </c>
     </row>
     <row r="196">
@@ -4345,19 +4345,19 @@
         <v>316</v>
       </c>
       <c r="B196" t="n">
-        <v>2.387159260676779</v>
+        <v>-1.139378959006021</v>
       </c>
       <c r="C196" t="n">
-        <v>-4.157219858079219</v>
+        <v>2.264822146896007</v>
       </c>
       <c r="D196" t="n">
-        <v>0.7349381606558826</v>
+        <v>-6.975213216492533</v>
       </c>
       <c r="E196" t="n">
-        <v>-3.019338259556625</v>
+        <v>-0.3585214566217569</v>
       </c>
       <c r="F196" t="n">
-        <v>6.836365440259248</v>
+        <v>4.915432477826651</v>
       </c>
     </row>
     <row r="197">
@@ -4365,19 +4365,19 @@
         <v>317</v>
       </c>
       <c r="B197" t="n">
-        <v>-2.370959643612984</v>
+        <v>-1.105092339274986</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.993127646352971</v>
+        <v>5.791557343099229</v>
       </c>
       <c r="D197" t="n">
-        <v>1.565504443152716</v>
+        <v>-1.148748183064093</v>
       </c>
       <c r="E197" t="n">
-        <v>2.190080320652428</v>
+        <v>-0.6262206064932843</v>
       </c>
       <c r="F197" t="n">
-        <v>4.592284151298543</v>
+        <v>1.210225841277854</v>
       </c>
     </row>
     <row r="198">
@@ -4385,19 +4385,19 @@
         <v>318</v>
       </c>
       <c r="B198" t="n">
-        <v>-3.905325293010624</v>
+        <v>0.3441149394499559</v>
       </c>
       <c r="C198" t="n">
-        <v>0.8742684593828089</v>
+        <v>4.0580847692333</v>
       </c>
       <c r="D198" t="n">
-        <v>1.745815995195141</v>
+        <v>2.350343902450431</v>
       </c>
       <c r="E198" t="n">
-        <v>2.571873007220074</v>
+        <v>0.7597172218283232</v>
       </c>
       <c r="F198" t="n">
-        <v>0.4178624803337297</v>
+        <v>-1.769855164596477</v>
       </c>
     </row>
     <row r="199">
@@ -4405,19 +4405,19 @@
         <v>319</v>
       </c>
       <c r="B199" t="n">
-        <v>-3.001463135019627</v>
+        <v>1.97001455605722</v>
       </c>
       <c r="C199" t="n">
-        <v>2.332854629886866</v>
+        <v>1.466640292621073</v>
       </c>
       <c r="D199" t="n">
-        <v>1.488877750139719</v>
+        <v>1.672863147658623</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0448332879560609</v>
+        <v>1.872200070439433</v>
       </c>
       <c r="F199" t="n">
-        <v>-0.972512365356314</v>
+        <v>-2.292883637032008</v>
       </c>
     </row>
     <row r="200">
@@ -4425,19 +4425,19 @@
         <v>320</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.9577840525604991</v>
+        <v>0.5161581340626764</v>
       </c>
       <c r="C200" t="n">
-        <v>0.06630534142384624</v>
+        <v>0.5798307945213855</v>
       </c>
       <c r="D200" t="n">
-        <v>0.8836518072122251</v>
+        <v>-0.7306897419552951</v>
       </c>
       <c r="E200" t="n">
-        <v>-1.169344792264569</v>
+        <v>1.384560212581791</v>
       </c>
       <c r="F200" t="n">
-        <v>0.3066977099260637</v>
+        <v>-0.3276635385639942</v>
       </c>
     </row>
     <row r="201">
@@ -4445,19 +4445,19 @@
         <v>321</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.5622767537961124</v>
+        <v>-0.8813343779299173</v>
       </c>
       <c r="C201" t="n">
-        <v>-1.378592482594636</v>
+        <v>0.7739631001119658</v>
       </c>
       <c r="D201" t="n">
-        <v>1.07280727568548</v>
+        <v>-0.7170600299297012</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.6258332440375367</v>
+        <v>1.341423411235144</v>
       </c>
       <c r="F201" t="n">
-        <v>0.3402472643632117</v>
+        <v>0.4298286938722709</v>
       </c>
     </row>
     <row r="202">
@@ -4465,19 +4465,19 @@
         <v>322</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.073879744439383</v>
+        <v>-0.6591586007107032</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.9775162133649794</v>
+        <v>0.2630212308506543</v>
       </c>
       <c r="D202" t="n">
-        <v>1.784529994882676</v>
+        <v>0.08612525671870624</v>
       </c>
       <c r="E202" t="n">
-        <v>-1.041778337263598</v>
+        <v>2.624532078955885</v>
       </c>
       <c r="F202" t="n">
-        <v>-1.029164718319064</v>
+        <v>-0.1774168999628662</v>
       </c>
     </row>
     <row r="203">
@@ -4485,19 +4485,19 @@
         <v>323</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.211861373677313</v>
+        <v>-0.9503282783428662</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.181709673374225</v>
+        <v>0.6521967172088502</v>
       </c>
       <c r="D203" t="n">
-        <v>1.605356401290889</v>
+        <v>0.2112646140728145</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.5217588414613564</v>
+        <v>2.220076848992764</v>
       </c>
       <c r="F203" t="n">
-        <v>-0.7873229544154009</v>
+        <v>-0.1884623120594792</v>
       </c>
     </row>
     <row r="204">
@@ -4505,19 +4505,19 @@
         <v>324</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.174557139801249</v>
+        <v>-0.1355068881879102</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.3075266608014563</v>
+        <v>0.3683039969837501</v>
       </c>
       <c r="D204" t="n">
-        <v>2.120302599434051</v>
+        <v>0.7748562043931844</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.6778469755663793</v>
+        <v>2.687321245439905</v>
       </c>
       <c r="F204" t="n">
-        <v>-1.264933303541363</v>
+        <v>-0.2491379384652032</v>
       </c>
     </row>
     <row r="205">
@@ -4525,19 +4525,19 @@
         <v>325</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.3463182357666822</v>
+        <v>-1.025761281824965</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.516039048677586</v>
+        <v>0.09732351178564254</v>
       </c>
       <c r="D205" t="n">
-        <v>2.189878743446703</v>
+        <v>0.02656767090506421</v>
       </c>
       <c r="E205" t="n">
-        <v>-1.002539738411967</v>
+        <v>2.734206645815169</v>
       </c>
       <c r="F205" t="n">
-        <v>-0.9227800625128022</v>
+        <v>0.7323546044235423</v>
       </c>
     </row>
     <row r="206">
@@ -4545,19 +4545,19 @@
         <v>326</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.2965599312571658</v>
+        <v>-2.352055643994934</v>
       </c>
       <c r="C206" t="n">
-        <v>-2.712018240553303</v>
+        <v>0.7017393894796469</v>
       </c>
       <c r="D206" t="n">
-        <v>1.982758515194659</v>
+        <v>0.2282874333359076</v>
       </c>
       <c r="E206" t="n">
-        <v>0.07320578785017168</v>
+        <v>2.108900813594725</v>
       </c>
       <c r="F206" t="n">
-        <v>-0.6369779788017499</v>
+        <v>1.132166783961843</v>
       </c>
     </row>
     <row r="207">
@@ -4565,19 +4565,19 @@
         <v>327</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.6554629270499612</v>
+        <v>-1.950651595042569</v>
       </c>
       <c r="C207" t="n">
-        <v>-2.063565464906804</v>
+        <v>-0.2026337666572116</v>
       </c>
       <c r="D207" t="n">
-        <v>2.686879777667884</v>
+        <v>1.225460708111938</v>
       </c>
       <c r="E207" t="n">
-        <v>-0.4625514930427336</v>
+        <v>3.497116242522082</v>
       </c>
       <c r="F207" t="n">
-        <v>-2.383899887985796</v>
+        <v>0.4389759181182619</v>
       </c>
     </row>
     <row r="208">
@@ -4585,19 +4585,19 @@
         <v>328</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.372991901280862</v>
+        <v>-1.72015537152078</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.852722873075243</v>
+        <v>-0.4246537680057559</v>
       </c>
       <c r="D208" t="n">
-        <v>2.747313534013865</v>
+        <v>1.261879077211588</v>
       </c>
       <c r="E208" t="n">
-        <v>-0.5547725899985767</v>
+        <v>3.487850016069011</v>
       </c>
       <c r="F208" t="n">
-        <v>-2.41964889865219</v>
+        <v>0.6176008081060416</v>
       </c>
     </row>
     <row r="209">
@@ -4605,19 +4605,19 @@
         <v>329</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.05806266588241723</v>
+        <v>-1.418105221349468</v>
       </c>
       <c r="C209" t="n">
-        <v>-1.301268168827322</v>
+        <v>0.04318879054263893</v>
       </c>
       <c r="D209" t="n">
-        <v>2.730591929228386</v>
+        <v>2.123819878669045</v>
       </c>
       <c r="E209" t="n">
-        <v>0.7123653877092169</v>
+        <v>2.535259168825152</v>
       </c>
       <c r="F209" t="n">
-        <v>-2.073740499938724</v>
+        <v>1.01085761876974</v>
       </c>
     </row>
     <row r="210">
@@ -4625,19 +4625,19 @@
         <v>330</v>
       </c>
       <c r="B210" t="n">
-        <v>0.3732237194653991</v>
+        <v>-0.9925888122056069</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.7719669697591038</v>
+        <v>-0.02517466287637047</v>
       </c>
       <c r="D210" t="n">
-        <v>2.482660991690735</v>
+        <v>2.362849782974803</v>
       </c>
       <c r="E210" t="n">
-        <v>1.123698870656338</v>
+        <v>1.854020092408016</v>
       </c>
       <c r="F210" t="n">
-        <v>-1.83692029306959</v>
+        <v>1.234268738480287</v>
       </c>
     </row>
     <row r="211">
@@ -4645,19 +4645,19 @@
         <v>331</v>
       </c>
       <c r="B211" t="n">
-        <v>0.9517113103425651</v>
+        <v>-0.4808747770214006</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.376633995301751</v>
+        <v>-0.6504412431115041</v>
       </c>
       <c r="D211" t="n">
-        <v>2.364220912139948</v>
+        <v>2.066099967135033</v>
       </c>
       <c r="E211" t="n">
-        <v>0.5915265423885198</v>
+        <v>1.818577159024548</v>
       </c>
       <c r="F211" t="n">
-        <v>-1.83903222449127</v>
+        <v>1.465095283804427</v>
       </c>
     </row>
     <row r="212">
@@ -4665,19 +4665,19 @@
         <v>332</v>
       </c>
       <c r="B212" t="n">
-        <v>1.433876466884583</v>
+        <v>-1.108969666330998</v>
       </c>
       <c r="C212" t="n">
-        <v>-1.112128976617852</v>
+        <v>-0.4779091600075471</v>
       </c>
       <c r="D212" t="n">
-        <v>1.879986700041259</v>
+        <v>1.525104541483526</v>
       </c>
       <c r="E212" t="n">
-        <v>0.8841788610676097</v>
+        <v>1.053340960566177</v>
       </c>
       <c r="F212" t="n">
-        <v>-1.136666666353785</v>
+        <v>1.997257870055482</v>
       </c>
     </row>
     <row r="213">
@@ -4685,19 +4685,19 @@
         <v>333</v>
       </c>
       <c r="B213" t="n">
-        <v>1.351362918369663</v>
+        <v>-1.261138494613186</v>
       </c>
       <c r="C213" t="n">
-        <v>-1.174524660802863</v>
+        <v>-0.2733367221402516</v>
       </c>
       <c r="D213" t="n">
-        <v>1.524466809449327</v>
+        <v>1.514666738273765</v>
       </c>
       <c r="E213" t="n">
-        <v>1.218364405359376</v>
+        <v>0.5820037930502497</v>
       </c>
       <c r="F213" t="n">
-        <v>-0.916526942389687</v>
+        <v>1.884786384875796</v>
       </c>
     </row>
     <row r="214">
@@ -4705,19 +4705,19 @@
         <v>334</v>
       </c>
       <c r="B214" t="n">
-        <v>1.299972071174477</v>
+        <v>-0.9964951446960382</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.8401225080245186</v>
+        <v>-0.9496644609149388</v>
       </c>
       <c r="D214" t="n">
-        <v>1.604694777089711</v>
+        <v>1.664240043577606</v>
       </c>
       <c r="E214" t="n">
-        <v>0.6464074016861016</v>
+        <v>1.167035541163306</v>
       </c>
       <c r="F214" t="n">
-        <v>-1.687718728878833</v>
+        <v>1.492232784490778</v>
       </c>
     </row>
     <row r="215">
@@ -4725,19 +4725,19 @@
         <v>335</v>
       </c>
       <c r="B215" t="n">
-        <v>1.457621963744819</v>
+        <v>-1.124908019235844</v>
       </c>
       <c r="C215" t="n">
-        <v>-1.088780009282864</v>
+        <v>-0.9801513008066475</v>
       </c>
       <c r="D215" t="n">
-        <v>1.37662560659635</v>
+        <v>1.200614498555425</v>
       </c>
       <c r="E215" t="n">
-        <v>0.4442286121025438</v>
+        <v>0.993916831338058</v>
       </c>
       <c r="F215" t="n">
-        <v>-1.36972625400052</v>
+        <v>1.620631425245449</v>
       </c>
     </row>
     <row r="216">
@@ -4745,19 +4745,19 @@
         <v>336</v>
       </c>
       <c r="B216" t="n">
-        <v>1.396472749207527</v>
+        <v>-1.088768096971832</v>
       </c>
       <c r="C216" t="n">
-        <v>-1.131083772069221</v>
+        <v>-0.8196412561608881</v>
       </c>
       <c r="D216" t="n">
-        <v>1.284357619730944</v>
+        <v>0.9336503869791443</v>
       </c>
       <c r="E216" t="n">
-        <v>0.3617524910778767</v>
+        <v>0.8894540274643112</v>
       </c>
       <c r="F216" t="n">
-        <v>-1.075598555076519</v>
+        <v>1.620943592296556</v>
       </c>
     </row>
     <row r="217">
@@ -4765,19 +4765,19 @@
         <v>337</v>
       </c>
       <c r="B217" t="n">
-        <v>0.8149214961383364</v>
+        <v>-1.149166838765767</v>
       </c>
       <c r="C217" t="n">
-        <v>-1.138948514713983</v>
+        <v>-0.3268523232815215</v>
       </c>
       <c r="D217" t="n">
-        <v>0.8172403325389724</v>
+        <v>0.6529556293214315</v>
       </c>
       <c r="E217" t="n">
-        <v>0.4937885525990355</v>
+        <v>0.5101356403974082</v>
       </c>
       <c r="F217" t="n">
-        <v>-0.6634262438524576</v>
+        <v>1.105179533431216</v>
       </c>
     </row>
     <row r="218">
@@ -4785,19 +4785,19 @@
         <v>338</v>
       </c>
       <c r="B218" t="n">
-        <v>0.3627065093847123</v>
+        <v>0.06858118964313781</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1420628116700993</v>
+        <v>-0.6008815041023359</v>
       </c>
       <c r="D218" t="n">
-        <v>1.124799437630757</v>
+        <v>0.9969181749596043</v>
       </c>
       <c r="E218" t="n">
-        <v>-0.05924548792048089</v>
+        <v>1.120340509790223</v>
       </c>
       <c r="F218" t="n">
-        <v>-1.16811000246546</v>
+        <v>0.4256627598256107</v>
       </c>
     </row>
     <row r="219">
@@ -4805,19 +4805,19 @@
         <v>339</v>
       </c>
       <c r="B219" t="n">
-        <v>0.1614698944897895</v>
+        <v>-1.00101061376087</v>
       </c>
       <c r="C219" t="n">
-        <v>-1.026084409116246</v>
+        <v>0.4163747036393951</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.04878159164178082</v>
+        <v>-0.08188967755300861</v>
       </c>
       <c r="E219" t="n">
-        <v>0.5838133100650338</v>
+        <v>-0.3360807170607804</v>
       </c>
       <c r="F219" t="n">
-        <v>0.3380232855293433</v>
+        <v>0.48496713046377</v>
       </c>
     </row>
     <row r="220">
@@ -4825,19 +4825,19 @@
         <v>340</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.4544883508095404</v>
+        <v>-0.4902430902205369</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.3190157164874384</v>
+        <v>0.3107737520268226</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.1333670230655908</v>
+        <v>0.2684484586580337</v>
       </c>
       <c r="E220" t="n">
-        <v>0.4244612533099236</v>
+        <v>-0.07366083277697956</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.1689993394718018</v>
+        <v>-0.3507364400911027</v>
       </c>
     </row>
     <row r="221">
@@ -4845,19 +4845,19 @@
         <v>341</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.7890522142878263</v>
+        <v>-0.4228706980178333</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.3691942941240501</v>
+        <v>-0.4029094783432726</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.3302083219006184</v>
+        <v>-0.3807542162763016</v>
       </c>
       <c r="E221" t="n">
-        <v>-0.8315775863081855</v>
+        <v>0.7329068184671111</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.7443415739680672</v>
+        <v>-1.043368467892358</v>
       </c>
     </row>
     <row r="222">
@@ -4865,19 +4865,19 @@
         <v>342</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.8304852106196822</v>
+        <v>-0.5962971144033372</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.5515299549955602</v>
+        <v>0.04816521137746305</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.59190213438897</v>
+        <v>-0.5444918659106436</v>
       </c>
       <c r="E222" t="n">
-        <v>-0.4411165291520484</v>
+        <v>0.1923965271286483</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.182864092198904</v>
+        <v>-0.9362620526743012</v>
       </c>
     </row>
     <row r="223">
@@ -4885,19 +4885,19 @@
         <v>343</v>
       </c>
       <c r="B223" t="n">
-        <v>-1.202134788652761</v>
+        <v>-0.5508085884479278</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.401503603245604</v>
+        <v>0.2937734081718049</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.7904778259896933</v>
+        <v>-0.4573883338502733</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.2505402396762308</v>
+        <v>0.0154326716221586</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.1409831341673603</v>
+        <v>-1.309754990051223</v>
       </c>
     </row>
     <row r="224">
@@ -4905,19 +4905,19 @@
         <v>344</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.516005663941389</v>
+        <v>-0.2831849646126102</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.174406996710756</v>
+        <v>0.1686541207985728</v>
       </c>
       <c r="D224" t="n">
-        <v>-1.028249424689686</v>
+        <v>-0.8235063100932061</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.7622475842144451</v>
+        <v>0.1684849395358115</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.1540983425583406</v>
+        <v>-1.782226168788161</v>
       </c>
     </row>
     <row r="225">
@@ -4925,19 +4925,19 @@
         <v>345</v>
       </c>
       <c r="B225" t="n">
-        <v>-1.530069807567034</v>
+        <v>-0.07775282749424166</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.005714095339344893</v>
+        <v>-0.09632304029489525</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.8964722273250672</v>
+        <v>-0.8463754038098874</v>
       </c>
       <c r="E225" t="n">
-        <v>-1.126209912181151</v>
+        <v>0.5161540683585345</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.4165900756111501</v>
+        <v>-1.894448758157825</v>
       </c>
     </row>
     <row r="226">
@@ -4945,19 +4945,19 @@
         <v>346</v>
       </c>
       <c r="B226" t="n">
-        <v>-1.444706398047188</v>
+        <v>-0.1728161429680776</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.1446746693742828</v>
+        <v>0.1939609292129984</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.9653237330876426</v>
+        <v>-0.9678027750777405</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.8822413935390532</v>
+        <v>0.1951086280054121</v>
       </c>
       <c r="F226" t="n">
-        <v>0.001764892856599792</v>
+        <v>-1.662111665857048</v>
       </c>
     </row>
     <row r="227">
@@ -4965,19 +4965,19 @@
         <v>347</v>
       </c>
       <c r="B227" t="n">
-        <v>-1.555495809252884</v>
+        <v>-0.3017700867404538</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.2709087319151504</v>
+        <v>0.4423074037643083</v>
       </c>
       <c r="D227" t="n">
-        <v>-1.112751046299487</v>
+        <v>-1.054937285785664</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.6998492293015958</v>
+        <v>-0.03469623536700898</v>
       </c>
       <c r="F227" t="n">
-        <v>0.2467709009277134</v>
+        <v>-1.697989791812995</v>
       </c>
     </row>
     <row r="228">
@@ -4985,19 +4985,19 @@
         <v>348</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.785808793988134</v>
+        <v>0.3190963563151745</v>
       </c>
       <c r="C228" t="n">
-        <v>0.3683778142521968</v>
+        <v>0.246183102314207</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.9267804160364524</v>
+        <v>-0.9161359026083916</v>
       </c>
       <c r="E228" t="n">
-        <v>-1.076543031449963</v>
+        <v>0.3614342619827967</v>
       </c>
       <c r="F228" t="n">
-        <v>-0.06110394424008639</v>
+        <v>-2.049909015226463</v>
       </c>
     </row>
     <row r="229">
@@ -5005,19 +5005,19 @@
         <v>349</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.661132014538939</v>
+        <v>0.3137450343979344</v>
       </c>
       <c r="C229" t="n">
-        <v>0.289370463477043</v>
+        <v>0.3564782569468744</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.9399583809384698</v>
+        <v>-1.058876216914082</v>
       </c>
       <c r="E229" t="n">
-        <v>-1.038752519387419</v>
+        <v>0.2173004154969058</v>
       </c>
       <c r="F229" t="n">
-        <v>0.1990213947255918</v>
+        <v>-1.862082026568076</v>
       </c>
     </row>
     <row r="230">
@@ -5025,19 +5025,19 @@
         <v>350</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.591793431448187</v>
+        <v>-0.5939011330367622</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.5814233469794102</v>
+        <v>0.9595371550861487</v>
       </c>
       <c r="D230" t="n">
-        <v>-1.385093876147811</v>
+        <v>-1.253522128433112</v>
       </c>
       <c r="E230" t="n">
-        <v>-0.2499043708385961</v>
+        <v>-0.619234388423466</v>
       </c>
       <c r="F230" t="n">
-        <v>0.8577197385516013</v>
+        <v>-1.542357848142157</v>
       </c>
     </row>
     <row r="231">
@@ -5045,19 +5045,19 @@
         <v>351</v>
       </c>
       <c r="B231" t="n">
-        <v>-1.505115702462445</v>
+        <v>0.9627670956127005</v>
       </c>
       <c r="C231" t="n">
-        <v>1.091979256718874</v>
+        <v>-0.3237774618743713</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.2363177088564798</v>
+        <v>-0.1570647827194325</v>
       </c>
       <c r="E231" t="n">
-        <v>-1.241917404141281</v>
+        <v>1.033927677295442</v>
       </c>
       <c r="F231" t="n">
-        <v>-0.8748832581127606</v>
+        <v>-1.922049528508246</v>
       </c>
     </row>
     <row r="232">
@@ -5065,19 +5065,19 @@
         <v>352</v>
       </c>
       <c r="B232" t="n">
-        <v>-1.09892358213506</v>
+        <v>0.3083619665780742</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1889618775428802</v>
+        <v>0.1692745271632871</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.6638966143455579</v>
+        <v>-1.020547490599988</v>
       </c>
       <c r="E232" t="n">
-        <v>-1.013082854435956</v>
+        <v>0.2393318529006679</v>
       </c>
       <c r="F232" t="n">
-        <v>0.257708066432939</v>
+        <v>-1.251718038671312</v>
       </c>
     </row>
     <row r="233">
@@ -5085,19 +5085,19 @@
         <v>353</v>
       </c>
       <c r="B233" t="n">
-        <v>-1.077127120054982</v>
+        <v>0.4333532103639736</v>
       </c>
       <c r="C233" t="n">
-        <v>0.3686507370002266</v>
+        <v>1.022591085585474</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.726436058847584</v>
+        <v>-0.7714268005805905</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.04797262300187363</v>
+        <v>-0.6320754610691416</v>
       </c>
       <c r="F233" t="n">
-        <v>1.100975876078847</v>
+        <v>-0.8973650740463391</v>
       </c>
     </row>
     <row r="234">
@@ -5105,19 +5105,19 @@
         <v>354</v>
       </c>
       <c r="B234" t="n">
-        <v>-1.325642252093064</v>
+        <v>1.109615169397888</v>
       </c>
       <c r="C234" t="n">
-        <v>1.08183620229792</v>
+        <v>0.4557594537395451</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.4313874183738242</v>
+        <v>-0.5638031109436202</v>
       </c>
       <c r="E234" t="n">
-        <v>-0.7571421997849254</v>
+        <v>0.1675142662103612</v>
       </c>
       <c r="F234" t="n">
-        <v>0.3416363324112948</v>
+        <v>-1.420575939018391</v>
       </c>
     </row>
     <row r="235">
@@ -5125,19 +5125,19 @@
         <v>355</v>
       </c>
       <c r="B235" t="n">
-        <v>-1.07703582519825</v>
+        <v>0.7051868941223089</v>
       </c>
       <c r="C235" t="n">
-        <v>0.6014326912350565</v>
+        <v>0.6799377784150868</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.5875285759647191</v>
+        <v>-0.8121217758625817</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.5016620998078144</v>
+        <v>-0.2287825490351319</v>
       </c>
       <c r="F235" t="n">
-        <v>0.7888343247071496</v>
+        <v>-1.033710965105786</v>
       </c>
     </row>
     <row r="236">
@@ -5145,19 +5145,19 @@
         <v>356</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.8444832742863502</v>
+        <v>0.6446084133683837</v>
       </c>
       <c r="C236" t="n">
-        <v>0.5931180337718079</v>
+        <v>0.7247285855256124</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.4127318677923063</v>
+        <v>-0.4783301957590521</v>
       </c>
       <c r="E236" t="n">
-        <v>-0.1318548475308115</v>
+        <v>-0.3459978124107249</v>
       </c>
       <c r="F236" t="n">
-        <v>0.7558030261123616</v>
+        <v>-0.732628370494269</v>
       </c>
     </row>
     <row r="237">
@@ -5165,19 +5165,19 @@
         <v>357</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.8225493032879149</v>
+        <v>0.9530432495218089</v>
       </c>
       <c r="C237" t="n">
-        <v>0.8834790330590531</v>
+        <v>0.3676007446003393</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.1962730270059356</v>
+        <v>-0.3986854578862986</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.5245761109577112</v>
+        <v>0.09259986624378939</v>
       </c>
       <c r="F237" t="n">
-        <v>0.3763963647441688</v>
+        <v>-0.839445382926766</v>
       </c>
     </row>
     <row r="238">
@@ -5185,19 +5185,19 @@
         <v>358</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.8017941851479296</v>
+        <v>0.2087930190076223</v>
       </c>
       <c r="C238" t="n">
-        <v>0.1120626504292711</v>
+        <v>0.8637531637173099</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.6623856187520533</v>
+        <v>-0.7840771997583469</v>
       </c>
       <c r="E238" t="n">
-        <v>-0.04432552261779295</v>
+        <v>-0.6015648695536456</v>
       </c>
       <c r="F238" t="n">
-        <v>1.033197314782172</v>
+        <v>-0.6298778225613737</v>
       </c>
     </row>
   </sheetData>
